--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45798</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44264</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45917.58798611111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45922.55509259259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>45139</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>45783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45579</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45645.27462962963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>45880.62738425926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>45886.64045138889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45568</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>45922.57796296296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45723.61545138889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45723.57098379629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>45604</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45817.47909722223</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>45742.41269675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45832.36966435185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45968.35777777778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44578</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>45731.65016203704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45723.55663194445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>45917.46651620371</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>45917.60378472223</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>45881.41636574074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>45568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>45042</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>45723.59275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>45441.33914351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>45583</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45884.4946875</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45905.42704861111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>45771.69168981481</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>45922.60398148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45832.31648148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45833.56057870371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45978.67916666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45764.47825231482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45013.77040509259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45727.64337962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45604</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>45733.45780092593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45568.44137731481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>45832.3365625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44789</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>45905</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>45086</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>45985.5396875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>45694</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44886.54420138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45258.56491898148</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>45758.54390046297</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45783.68689814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45782.659375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>44480</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44426</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44452</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>44524</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>44490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45042</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>45747.58131944444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44777.49493055556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>45362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>45583.3479050926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>45583</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>45174</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>45742.43848379629</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>45744</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45583</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45905.58907407407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>45744.41443287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>45917.5712037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44993</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>45924.69556712963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>45369</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45964.60429398148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>45968.57920138889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45421</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45580</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>45723.66964120371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45117</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>46043.58462962963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>45702.76395833334</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>45770.63996527778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>46048</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>45201</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>45096</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>45056</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>45201</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>45408</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>45716.5672337963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45376</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45411.57177083333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>45251</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44354</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45348.68336805556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>45763.60795138889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>45783.61222222223</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45796</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>44456</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44456</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44301</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44307</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44530</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>44582.4696875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44502</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44622</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44537</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44825.47923611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44340.80107638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44739</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44279</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44368</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44719.43086805556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44258</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44503</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44440</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>44448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11950,7 +11950,7 @@
         <v>44368</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44441</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44301</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44865</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44294</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44286</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44524.67836805555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44385</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44696.775</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44390</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44433</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44447</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44368.88704861111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44340</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44713</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44671</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44813</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>44515</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44571</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44442.66228009259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44272</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44393</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44630.3978587963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44371</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44524</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44271.81282407408</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44530</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44300</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44300</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44503</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44459</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44446</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44321</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44459</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44879.39153935185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44475</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44249</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44574</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>44686</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>44602</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44889.55255787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44328</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>44452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>44825</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>44756</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>44582</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>44741.57063657408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44302</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>44730</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44354.45140046296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44326</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44326</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44886.47697916667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>44449</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44358</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44432</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44740</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44270</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44348</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44252</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>44441</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44452</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44272</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44363</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44313</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44344.49251157408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>44363</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>44726</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44596</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44468</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44630</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44279</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44557</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>44445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>44869.4575</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45706.42958333333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44322</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45678.47236111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45758.36203703703</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45401.46640046296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44651.42819444444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44249</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44826</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>45106</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>45644</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>45469.43265046296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>45118</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45086.71662037037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44512</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>45076</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45386.32806712963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45579.56570601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45706.49520833333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45191</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45520.52375</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45716.39159722222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44935.64165509259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>45093</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>45053.36554398148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>45110</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>45266</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45092.35266203704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44974.65918981482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45636.45989583333</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>45313</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45356.66037037037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45238.33091435185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45742.31784722222</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45583.55850694444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45043.53597222222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45527.41597222222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45583.34371527778</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45386.35986111111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45022.34695601852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44970.44197916667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45254.54892361111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>44862</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45702.76590277778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45535.91413194445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45798.45043981481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>45887</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>45356.64724537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44980</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>45887</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44956</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>45764.43002314815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>45794.82150462963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>45884.68263888889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45886.65516203704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44966.57550925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44936</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45408</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45565.5381712963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45798.66228009259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>45246.41783564815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45554.28857638889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44575</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>45414.5519212963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45722.46946759259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>45884.45916666667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>45272</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45803.43815972222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45762.76337962963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44439.97621527778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45603.49528935185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45274</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44754.57658564814</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45804.59579861111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>45174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>45174.87439814815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>45731.60166666667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45888.61847222222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45888.46922453704</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45888.4658449074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45363.58979166667</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>45628.56513888889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>44897</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>45889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>45794.81583333333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>44935</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>44935.60138888889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45888.4712037037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44950</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>45891.59726851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>45891.59938657407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>45369</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>45813.56320601852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45891.60103009259</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>44896</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45891.60346064815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44858</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45436.41305555555</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45894.41133101852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45758.56946759259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45895.42582175926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>45817.64487268519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45895.373125</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>44644</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45895.3627662037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45894.55337962963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>45894.4825</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44454</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45729</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>45894.55216435185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>45110.56027777777</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>45110</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>45817</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>45896.66505787037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45817</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45896.81087962963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45896.66944444444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>45671.59245370371</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>45096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>45532</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>45202</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45898.58202546297</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45657.94784722223</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45121</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>45898.86685185185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>45597.40140046296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45279.66864583334</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>45817.41037037037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>45071</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>45820.39863425926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>45684.4203125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25597,7 +25597,7 @@
         <v>45678.6377199074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25654,7 +25654,7 @@
         <v>44889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25711,7 +25711,7 @@
         <v>45820.37113425926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>45903.43489583334</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25830,7 +25830,7 @@
         <v>45903.45952546296</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>45678.59783564815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>45877</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>45317</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45202.56994212963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45043</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45904.55924768518</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45453.55534722222</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45824.31493055556</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>45908.46045138889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45908.47244212963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>45478.42675925926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26549,7 +26549,7 @@
         <v>45098.37322916667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26606,7 +26606,7 @@
         <v>45824.45221064815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>45824.32293981482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>45414.39614583334</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>45183</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>45764.43782407408</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>45764.44263888889</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>45043</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27015,7 +27015,7 @@
         <v>45917.34253472222</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27072,7 +27072,7 @@
         <v>45757.66474537037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45758.35732638889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45240</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27243,7 +27243,7 @@
         <v>45917.34472222222</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27300,7 +27300,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27357,7 +27357,7 @@
         <v>45715.56964120371</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27419,7 +27419,7 @@
         <v>45771.76943287037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27476,7 +27476,7 @@
         <v>44536</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27533,7 +27533,7 @@
         <v>45832</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>45922.61070601852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>45153</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>45922.59829861111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>45215</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>45922.60783564814</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>45923.67458333333</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>45096</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45924.65238425926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28061,7 +28061,7 @@
         <v>45833.65659722222</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28118,7 +28118,7 @@
         <v>44599</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28175,7 +28175,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28237,7 +28237,7 @@
         <v>45833.40451388889</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45833.4374537037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45832</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>45832</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>45330</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45219.32268518519</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>45924.61788194445</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>45924.70513888889</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>45468.82832175926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>45201.63637731481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>45924.61070601852</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44980.48200231481</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45926.61226851852</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45927.83253472222</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45926.58292824074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45930.36192129629</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44504</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>45836</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>45317</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45838.683125</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45365</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>45405</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>45769.45751157407</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>44923.67971064815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>45933.65831018519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>45933.66274305555</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44930</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44974</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>45936.3762037037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>45043</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>45716.57158564815</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>45092.35369212963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>45936</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45840.65592592592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>45840.66978009259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>44970.65930555556</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>45840.66780092593</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>44865</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>45770.84420138889</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>45873</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         <v>45936</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30748,7 +30748,7 @@
         <v>44908</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30805,7 +30805,7 @@
         <v>44943.56112268518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44943</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45211.52641203703</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45211.52895833334</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45678.57045138889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45678.58166666667</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>45943.57129629629</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>45943.57232638889</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>45943.57040509259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>45943.57618055555</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>45845.65797453704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45678.44092592593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45317</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31566,7 +31566,7 @@
         <v>45215.63818287037</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31623,7 +31623,7 @@
         <v>45943.57453703704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31680,7 +31680,7 @@
         <v>45940.39841435185</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31737,7 +31737,7 @@
         <v>45940.39386574074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31794,7 +31794,7 @@
         <v>45845.45563657407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31856,7 +31856,7 @@
         <v>44427.49322916667</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31913,7 +31913,7 @@
         <v>45436.41847222222</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31975,7 +31975,7 @@
         <v>45204</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32037,7 +32037,7 @@
         <v>45356.64872685185</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32094,7 +32094,7 @@
         <v>44361</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32151,7 +32151,7 @@
         <v>45215</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32208,7 +32208,7 @@
         <v>45334</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32270,7 +32270,7 @@
         <v>45141</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32332,7 +32332,7 @@
         <v>45817.42607638889</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32389,7 +32389,7 @@
         <v>45736.31508101852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32446,7 +32446,7 @@
         <v>44945.58030092593</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32503,7 +32503,7 @@
         <v>45951.57859953704</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32560,7 +32560,7 @@
         <v>45860</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32622,7 +32622,7 @@
         <v>44936</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32679,7 +32679,7 @@
         <v>44312</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32741,7 +32741,7 @@
         <v>45706.54385416667</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32798,7 +32798,7 @@
         <v>45006</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32860,7 +32860,7 @@
         <v>45673.49019675926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32922,7 +32922,7 @@
         <v>44286.88952546296</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32979,7 +32979,7 @@
         <v>45582.98494212963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>45798.59671296296</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>45867.7115625</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>45386</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>45954.36793981482</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>44825</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45645.27707175926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>44237</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33455,7 +33455,7 @@
         <v>45807</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33512,7 +33512,7 @@
         <v>45030</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33569,7 +33569,7 @@
         <v>44433</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>45030.62916666667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44939</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>45093</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>45012</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>45771.66951388889</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>45796</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>45153.36402777778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34045,7 +34045,7 @@
         <v>45960.59640046296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34107,7 +34107,7 @@
         <v>45709.4119212963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45960.58719907407</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>45961.39773148148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>45965.66423611111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>45964.60148148148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>44867</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34469,7 +34469,7 @@
         <v>45373.72511574074</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34526,7 +34526,7 @@
         <v>44980</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45016.64986111111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>45796</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45881</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34764,7 +34764,7 @@
         <v>45254</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>45742.32277777778</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>45706.54204861111</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>45883.69113425926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>45966.71596064815</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>45497</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>45883.63648148148</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44861</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35292,7 +35292,7 @@
         <v>44607</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>45883.58756944445</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35406,7 +35406,7 @@
         <v>45968.46388888889</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>45968.57751157408</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>45629.7202662037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>45716.37259259259</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35649,7 +35649,7 @@
         <v>45883.5738425926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35706,7 +35706,7 @@
         <v>45968.57597222222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35768,7 +35768,7 @@
         <v>45883.59934027777</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35825,7 +35825,7 @@
         <v>45883.58974537037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         <v>45106</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>45764.47553240741</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36001,7 +36001,7 @@
         <v>45706.54572916667</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>45769</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>45266.69091435185</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>45883.74664351852</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36286,7 +36286,7 @@
         <v>44977.57584490741</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>45595</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         <v>45090</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45794.82371527778</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36524,7 +36524,7 @@
         <v>45709.42859953704</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36586,7 +36586,7 @@
         <v>45975.56322916667</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36643,7 +36643,7 @@
         <v>45114</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44630</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>45008.62458333333</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36819,7 +36819,7 @@
         <v>45975.57780092592</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>45975.58162037037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>45250.5799537037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>45884.57759259259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45884.60458333333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37114,7 +37114,7 @@
         <v>45976.56569444444</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         <v>44783</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37228,7 +37228,7 @@
         <v>45261.50924768519</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37285,7 +37285,7 @@
         <v>45721.51255787037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37342,7 +37342,7 @@
         <v>45721.51346064815</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>45978.46055555555</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37461,7 +37461,7 @@
         <v>45978.46680555555</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37523,7 +37523,7 @@
         <v>44977.63902777778</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45978.46510416667</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>45978.46326388889</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37709,7 +37709,7 @@
         <v>44719.43200231482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37766,7 +37766,7 @@
         <v>45012.79270833333</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37823,7 +37823,7 @@
         <v>45985.53733796296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37885,7 +37885,7 @@
         <v>45670</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37942,7 +37942,7 @@
         <v>45310</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         <v>45706.47790509259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>45761.59716435185</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38123,7 +38123,7 @@
         <v>45153</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>45490.72372685185</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>45769.40231481481</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44433</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>45985.47957175926</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38423,7 +38423,7 @@
         <v>45986</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>45716.45121527778</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>45370</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38609,7 +38609,7 @@
         <v>44805</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38671,7 +38671,7 @@
         <v>44746</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38728,7 +38728,7 @@
         <v>44907.65043981482</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38785,7 +38785,7 @@
         <v>45657.95927083334</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38847,7 +38847,7 @@
         <v>45117</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>45121</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         <v>45986.38106481481</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>45986.38231481481</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>45986.38013888889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39157,7 +39157,7 @@
         <v>45733.43347222222</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39219,7 +39219,7 @@
         <v>45733.44431712963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>46010</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>46030.59546296296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>46030.63935185185</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39477,7 +39477,7 @@
         <v>45989.73280092593</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39534,7 +39534,7 @@
         <v>44957</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>45394</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44767</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>45964</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>45769.41631944444</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>45992.55408564815</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>45072</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39958,7 +39958,7 @@
         <v>44974</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40020,7 +40020,7 @@
         <v>45642</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>45106</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44853.64244212963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>46034.33767361111</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44897</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>45629.67508101852</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>45629.67931712963</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>46034.34396990741</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>45478.42675925926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40548,7 +40548,7 @@
         <v>45727.6683449074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>45993.43421296297</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40672,7 +40672,7 @@
         <v>45090.90752314815</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>45758.56056712963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40796,7 +40796,7 @@
         <v>44936.46326388889</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>46035.88178240741</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44462</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>46037.38564814815</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>46037.39449074074</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>45205.35753472222</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>45446.57724537037</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41210,7 +41210,7 @@
         <v>45446.5790625</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>45077</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>45092</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>45278</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41438,7 +41438,7 @@
         <v>46038.58539351852</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41495,7 +41495,7 @@
         <v>45030</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45399.62587962963</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41614,7 +41614,7 @@
         <v>45547.64484953704</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41676,7 +41676,7 @@
         <v>45159</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>45121</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41795,7 +41795,7 @@
         <v>45699</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41852,7 +41852,7 @@
         <v>45699.75583333334</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41909,7 +41909,7 @@
         <v>46041.45574074074</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>46038.4565162037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42028,7 +42028,7 @@
         <v>44910</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45442.67793981481</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42152,7 +42152,7 @@
         <v>45008.66204861111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44928.45552083333</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>46036</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>45637</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>45117</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>46042.57427083333</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>46042.58023148148</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45373.73894675926</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>46042.51780092593</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>46043.63300925926</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>46043.63504629629</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45527.40489583334</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45678.57731481481</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>46042.58653935185</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45014</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>46042.51780092593</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>46043.62521990741</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>46042.59065972222</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45266</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45049.34974537037</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45049.35048611111</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45266.66998842593</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45432.6291550926</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45954</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>46003</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>45237</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43664,7 +43664,7 @@
         <v>44974.564375</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43726,7 +43726,7 @@
         <v>46045.44877314815</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43783,7 +43783,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43840,7 +43840,7 @@
         <v>45747.59501157407</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43902,7 +43902,7 @@
         <v>46046.43557870371</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43959,7 +43959,7 @@
         <v>44834</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>46007.33993055556</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>44652</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>46046.43328703703</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44197,7 +44197,7 @@
         <v>44596</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>46006.43421296297</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44321,7 +44321,7 @@
         <v>46006.42920138889</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45772.6652662037</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44445,7 +44445,7 @@
         <v>46007.54611111111</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44507,7 +44507,7 @@
         <v>46006.44060185185</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>46048</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>46006.42659722222</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45771.44005787037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44750,7 +44750,7 @@
         <v>45546</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44807,7 +44807,7 @@
         <v>45796</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44869,7 +44869,7 @@
         <v>45229</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44926,7 +44926,7 @@
         <v>45030.62740740741</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44983,7 +44983,7 @@
         <v>45030</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45040,7 +45040,7 @@
         <v>45188</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45097,7 +45097,7 @@
         <v>46048</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45159,7 +45159,7 @@
         <v>45268</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>45550.68804398148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45273,7 +45273,7 @@
         <v>46052.59646990741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45330,7 +45330,7 @@
         <v>46050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45392,7 +45392,7 @@
         <v>46052.66451388889</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45449,7 +45449,7 @@
         <v>45798</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>44439.97621527778</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45573,7 +45573,7 @@
         <v>45797</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45635,7 +45635,7 @@
         <v>45053.82055555555</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45692,7 +45692,7 @@
         <v>44860</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>46052.59930555556</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>46052.60118055555</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45863,7 +45863,7 @@
         <v>46055.60996527778</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45925,7 +45925,7 @@
         <v>46010.39259259259</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45982,7 +45982,7 @@
         <v>44597</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46039,7 +46039,7 @@
         <v>45014</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46096,7 +46096,7 @@
         <v>46010.49901620371</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46153,7 +46153,7 @@
         <v>44936</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46210,7 +46210,7 @@
         <v>46010.38619212963</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46267,7 +46267,7 @@
         <v>46010.52946759259</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
         <v>45723.65960648148</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46381,7 +46381,7 @@
         <v>46014</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>46014</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46495,7 +46495,7 @@
         <v>44455.68550925926</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46552,7 +46552,7 @@
         <v>44588</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>44494</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46666,7 +46666,7 @@
         <v>45274.43547453704</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46723,7 +46723,7 @@
         <v>45558.54422453704</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46780,7 +46780,7 @@
         <v>45558</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46837,7 +46837,7 @@
         <v>44859</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46899,7 +46899,7 @@
         <v>45336</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>44582</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47013,7 +47013,7 @@
         <v>45442.6052199074</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47075,7 +47075,7 @@
         <v>45442.60829861111</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47137,7 +47137,7 @@
         <v>45442.68033564815</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47199,7 +47199,7 @@
         <v>45183.65135416666</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47256,7 +47256,7 @@
         <v>45183.65233796297</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47313,7 +47313,7 @@
         <v>45043</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47370,7 +47370,7 @@
         <v>45736.72646990741</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47427,7 +47427,7 @@
         <v>45509.57052083333</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47484,7 +47484,7 @@
         <v>45369.61550925926</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47541,7 +47541,7 @@
         <v>45145</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47598,7 +47598,7 @@
         <v>45215.63990740741</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47655,7 +47655,7 @@
         <v>44936</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47712,7 +47712,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47774,7 +47774,7 @@
         <v>45769</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47831,7 +47831,7 @@
         <v>45013.63658564815</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47888,7 +47888,7 @@
         <v>44956.54967592593</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47950,7 +47950,7 @@
         <v>44721</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48007,7 +48007,7 @@
         <v>45117</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         <v>44980</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48131,7 +48131,7 @@
         <v>45763.41083333334</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48193,7 +48193,7 @@
         <v>45217.51479166667</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48250,7 +48250,7 @@
         <v>45191.39708333334</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48307,7 +48307,7 @@
         <v>45733.62203703704</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48369,7 +48369,7 @@
         <v>44448</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48426,7 +48426,7 @@
         <v>44803.59099537037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48483,7 +48483,7 @@
         <v>45178.43909722222</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48545,7 +48545,7 @@
         <v>44860</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48602,7 +48602,7 @@
         <v>44939</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48664,7 +48664,7 @@
         <v>44987.5428587963</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48721,7 +48721,7 @@
         <v>44956</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48783,7 +48783,7 @@
         <v>45379</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48840,7 +48840,7 @@
         <v>44677</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48897,7 +48897,7 @@
         <v>45126</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48954,7 +48954,7 @@
         <v>45126</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49011,7 +49011,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49073,7 +49073,7 @@
         <v>45741.63417824074</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49135,7 +49135,7 @@
         <v>45268</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49192,7 +49192,7 @@
         <v>44907.66710648148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49249,7 +49249,7 @@
         <v>45114</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49311,7 +49311,7 @@
         <v>45114</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49368,7 +49368,7 @@
         <v>44742</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49425,7 +49425,7 @@
         <v>44469</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49482,7 +49482,7 @@
         <v>45723.66629629629</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49539,7 +49539,7 @@
         <v>45614.46292824074</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>44679</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49663,7 +49663,7 @@
         <v>45359.68173611111</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49720,7 +49720,7 @@
         <v>44880.44351851852</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49782,7 +49782,7 @@
         <v>44414</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49839,7 +49839,7 @@
         <v>45048</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49901,7 +49901,7 @@
         <v>44936</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49963,7 +49963,7 @@
         <v>44936</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50025,7 +50025,7 @@
         <v>45106</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50082,7 +50082,7 @@
         <v>45747.44502314815</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50139,7 +50139,7 @@
         <v>45769.57802083333</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50196,7 +50196,7 @@
         <v>45769</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50253,7 +50253,7 @@
         <v>45178.4275</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50315,7 +50315,7 @@
         <v>44488</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50372,7 +50372,7 @@
         <v>44994.41405092592</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50429,7 +50429,7 @@
         <v>45028</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50486,7 +50486,7 @@
         <v>45442.38490740741</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50543,7 +50543,7 @@
         <v>45408.49326388889</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50600,7 +50600,7 @@
         <v>45106</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50657,7 +50657,7 @@
         <v>45716.40918981482</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50719,7 +50719,7 @@
         <v>44862</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50781,7 +50781,7 @@
         <v>45684.41622685185</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50843,7 +50843,7 @@
         <v>45043.49425925926</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50900,7 +50900,7 @@
         <v>44236</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50962,7 +50962,7 @@
         <v>44805</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51024,7 +51024,7 @@
         <v>45201.56556712963</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51081,7 +51081,7 @@
         <v>45132</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51143,7 +51143,7 @@
         <v>45373.48878472222</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51200,7 +51200,7 @@
         <v>45527.43385416667</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51257,7 +51257,7 @@
         <v>44992</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51314,7 +51314,7 @@
         <v>44641.78332175926</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51371,7 +51371,7 @@
         <v>45252</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51428,7 +51428,7 @@
         <v>45369.61841435185</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51485,7 +51485,7 @@
         <v>45673</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51542,7 +51542,7 @@
         <v>45128</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51599,7 +51599,7 @@
         <v>45758.60146990741</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51656,7 +51656,7 @@
         <v>45686.61590277778</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51718,7 +51718,7 @@
         <v>45741.51940972222</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51780,7 +51780,7 @@
         <v>45096</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45638</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51904,7 +51904,7 @@
         <v>45246.41627314815</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51961,7 +51961,7 @@
         <v>45246</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52018,7 +52018,7 @@
         <v>45174</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         <v>45174</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45457.59425925926</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45092.36790509259</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>44981</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52308,7 +52308,7 @@
         <v>45414.3944212963</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52365,7 +52365,7 @@
         <v>45254</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>45027</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52484,7 +52484,7 @@
         <v>45425.89037037037</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52541,7 +52541,7 @@
         <v>45581.62796296296</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>45091</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>45369.62108796297</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52717,7 +52717,7 @@
         <v>45071</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52774,7 +52774,7 @@
         <v>45043</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52831,7 +52831,7 @@
         <v>45442.61221064815</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         <v>44358</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>45008</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>45763.64096064815</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>45699.65944444444</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53136,7 +53136,7 @@
         <v>45339.5277199074</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53193,7 +53193,7 @@
         <v>45758.60465277778</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53250,7 +53250,7 @@
         <v>45758.61055555556</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53307,7 +53307,7 @@
         <v>45093.54811342592</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44992</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44980</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53483,7 +53483,7 @@
         <v>45453.52299768518</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53540,7 +53540,7 @@
         <v>45252.91344907408</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53597,7 +53597,7 @@
         <v>45636.45025462963</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53654,7 +53654,7 @@
         <v>45636.4737962963</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44243</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>45731.59962962963</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>44573</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>44333</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45330</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>44279</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>44862</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54115,7 +54115,7 @@
         <v>45719.4522337963</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54172,7 +54172,7 @@
         <v>44573.38521990741</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54229,7 +54229,7 @@
         <v>45405</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45110</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54348,7 +54348,7 @@
         <v>44713.58678240741</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54405,7 +54405,7 @@
         <v>45336</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54462,7 +54462,7 @@
         <v>45016.67141203704</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54524,7 +54524,7 @@
         <v>45112</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54581,7 +54581,7 @@
         <v>45043</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54643,7 +54643,7 @@
         <v>44739.52209490741</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54700,7 +54700,7 @@
         <v>44364.78170138889</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54757,7 +54757,7 @@
         <v>45317</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54819,7 +54819,7 @@
         <v>45432.54622685185</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54876,7 +54876,7 @@
         <v>45715.5837962963</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54938,7 +54938,7 @@
         <v>45726.90959490741</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54995,7 +54995,7 @@
         <v>45723.67724537037</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55052,7 +55052,7 @@
         <v>45030.61489583334</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55109,7 +55109,7 @@
         <v>45030.61744212963</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55166,7 +55166,7 @@
         <v>45254</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55228,7 +55228,7 @@
         <v>44455</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55285,7 +55285,7 @@
         <v>45205.3119212963</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55342,7 +55342,7 @@
         <v>44851</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55399,7 +55399,7 @@
         <v>45129</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55456,7 +55456,7 @@
         <v>45478.47236111111</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55518,7 +55518,7 @@
         <v>44957</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55580,7 +55580,7 @@
         <v>45403.86942129629</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55637,7 +55637,7 @@
         <v>45033</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55694,7 +55694,7 @@
         <v>45593.59819444444</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55756,7 +55756,7 @@
         <v>45037</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55813,7 +55813,7 @@
         <v>45030</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55870,7 +55870,7 @@
         <v>45048</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55927,7 +55927,7 @@
         <v>45777.61991898148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         <v>45726.91224537037</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56046,7 +56046,7 @@
         <v>45783</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56103,7 +56103,7 @@
         <v>45783.48681712963</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56165,7 +56165,7 @@
         <v>45782.66719907407</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56222,7 +56222,7 @@
         <v>45671.62931712963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56279,7 +56279,7 @@
         <v>45784</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56336,7 +56336,7 @@
         <v>45784.62866898148</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56398,7 +56398,7 @@
         <v>45786</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56460,7 +56460,7 @@
         <v>45786.36358796297</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56522,7 +56522,7 @@
         <v>45789.42597222222</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56579,7 +56579,7 @@
         <v>45587.58498842592</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56641,7 +56641,7 @@
         <v>44565</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56703,7 +56703,7 @@
         <v>45092.36126157407</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56760,7 +56760,7 @@
         <v>45453.54733796296</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56817,7 +56817,7 @@
         <v>45453.55123842593</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56874,7 +56874,7 @@
         <v>45310.41982638889</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56931,7 +56931,7 @@
         <v>45790</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56988,7 +56988,7 @@
         <v>45792.42109953704</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57045,7 +57045,7 @@
         <v>45792.42542824074</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57102,7 +57102,7 @@
         <v>45259</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57159,7 +57159,7 @@
         <v>45796.36326388889</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57221,7 +57221,7 @@
         <v>45678.57503472222</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57278,7 +57278,7 @@
         <v>45797.39876157408</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57335,7 +57335,7 @@
         <v>45796.49842592593</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57392,7 +57392,7 @@
         <v>45794.82583333334</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57449,7 +57449,7 @@
         <v>45794.81975694445</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45798</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44264</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45917.58798611111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45922.55509259259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>45139</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>45783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45579</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>45645.27462962963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>45880.62738425926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>45886.64045138889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>45441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>45568</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>45922.57796296296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45133</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>45723.61545138889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>45723.57098379629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>45604</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>45817.47909722223</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>45742.41269675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>45832.36966435185</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45968.35777777778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44578</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>44412</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>45731.65016203704</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>45723.55663194445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         <v>45917.46651620371</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>45917.60378472223</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>45881.41636574074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>45568</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>45042</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         <v>45723.59275462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>45441.33914351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>45583</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45884.4946875</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45905.42704861111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>45771.69168981481</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>45922.60398148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45832.31648148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45833.56057870371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45978.67916666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45764.47825231482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45013.77040509259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45727.64337962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>45604</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>45733.45780092593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>45568.44137731481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>45583</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>45832.3365625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44789</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>45905</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>45086</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>45985.5396875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6106,7 +6106,7 @@
         <v>45694</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44886.54420138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45258.56491898148</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>45758.54390046297</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>45783.68689814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45782.659375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>44480</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>44426</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>44452</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>44524</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>44490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>45042</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>45747.58131944444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44777.49493055556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>45362</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>45583.3479050926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>45583</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>45174</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         <v>45742.43848379629</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>45744</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>45583</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45905.58907407407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>45744.41443287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>45917.5712037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44993</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>45924.69556712963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>45369</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>45964.60429398148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>45968.57920138889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45421</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45580</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>45723.66964120371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>45117</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>46043.58462962963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>45702.76395833334</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>45770.63996527778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>46048</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>45201</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>45096</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>45056</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>45201</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>45408</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>45716.5672337963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45376</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45411.57177083333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>45251</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>44354</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45348.68336805556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>45763.60795138889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>45783.61222222223</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45796</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>44456</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44456</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44301</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44307</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44530</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>44582.4696875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44502</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44622</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44537</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44825.47923611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44340.80107638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44739</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44279</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44368</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>44719.43086805556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44370</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44258</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44503</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44440</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>44448</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>44306</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11950,7 +11950,7 @@
         <v>44368</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44441</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44301</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44865</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44294</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44286</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44524.67836805555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44385</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44696.775</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44390</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44433</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44494</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44447</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44368.88704861111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44340</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44713</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44671</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44813</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>44515</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         <v>44571</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44442.66228009259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44475</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44272</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44393</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44630.3978587963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44371</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13767,7 +13767,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44524</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44271.81282407408</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44447</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44530</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>44313</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44300</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44300</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44503</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>44459</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44446</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44321</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44459</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44879.39153935185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44475</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44249</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14771,7 +14771,7 @@
         <v>44574</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14828,7 +14828,7 @@
         <v>44686</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         <v>44602</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44889.55255787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44328</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>44452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15123,7 +15123,7 @@
         <v>44825</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>44756</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15237,7 +15237,7 @@
         <v>44582</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>44741.57063657408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>44302</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>44730</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>44354.45140046296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>44326</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>44326</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>44886.47697916667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>44449</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16008,7 +16008,7 @@
         <v>44358</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44432</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44740</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44270</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44348</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44252</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16417,7 +16417,7 @@
         <v>44441</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44452</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44272</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44363</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44313</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>44344.49251157408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16784,7 +16784,7 @@
         <v>44363</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>44726</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         <v>44487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44596</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44468</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>44630</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>44279</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44557</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>44445</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>44869.4575</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45706.42958333333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44322</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45678.47236111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45758.36203703703</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45401.46640046296</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44957</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17741,7 +17741,7 @@
         <v>44651.42819444444</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>44249</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17855,7 +17855,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>44826</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17969,7 +17969,7 @@
         <v>45106</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18026,7 +18026,7 @@
         <v>45644</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>45469.43265046296</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>45118</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>44900</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45086.71662037037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44512</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>44783</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>45076</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45386.32806712963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45579.56570601852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45706.49520833333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
         <v>45191</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>45520.52375</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>45716.39159722222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44935.64165509259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>45093</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>45053.36554398148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>45110</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>44998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>45266</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45092.35266203704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>44974.65918981482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>45636.45989583333</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>45313</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45356.66037037037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45238.33091435185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45742.31784722222</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45583.55850694444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45043.53597222222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45527.41597222222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45583.34371527778</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45386.35986111111</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45022.34695601852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44970.44197916667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>45254.54892361111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
         <v>44862</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20267,7 +20267,7 @@
         <v>45702.76590277778</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>45535.91413194445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
         <v>45798.45043981481</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>45887</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20495,7 +20495,7 @@
         <v>45356.64724537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>44980</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20614,7 +20614,7 @@
         <v>45887</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20671,7 +20671,7 @@
         <v>44956</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
         <v>45764.43002314815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20790,7 +20790,7 @@
         <v>45794.82150462963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20847,7 +20847,7 @@
         <v>45884.68263888889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45886.65516203704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>44966.57550925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>44936</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45408</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45565.5381712963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45798.66228009259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>45246.41783564815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45554.28857638889</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44575</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>45414.5519212963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>45722.46946759259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>45884.45916666667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>45272</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45803.43815972222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45762.76337962963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>44439.97621527778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45603.49528935185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45400</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>45274</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22027,7 +22027,7 @@
         <v>44754.57658564814</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45804.59579861111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>45174</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>45174.87439814815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>45731.60166666667</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45888.61847222222</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45888.46922453704</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45888.4658449074</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45363.58979166667</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>45628.56513888889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>44897</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>45889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>45794.81583333333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>44935</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>44935.60138888889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
         <v>45888.4712037037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         <v>44950</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23083,7 +23083,7 @@
         <v>45891.59726851852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>45891.59938657407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23197,7 +23197,7 @@
         <v>45369</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23259,7 +23259,7 @@
         <v>45813.56320601852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45891.60103009259</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>44896</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>45891.60346064815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44858</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23559,7 +23559,7 @@
         <v>45436.41305555555</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         <v>45894.41133101852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45758.56946759259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45895.42582175926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>45817.64487268519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45895.373125</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>44644</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45895.3627662037</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45894.55337962963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>45894.4825</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44454</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45729</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>45894.55216435185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>45110.56027777777</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>45110</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>45817</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24536,7 +24536,7 @@
         <v>45896.66505787037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24593,7 +24593,7 @@
         <v>45817</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
         <v>45896.81087962963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24707,7 +24707,7 @@
         <v>45896.66944444444</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>45671.59245370371</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>45096</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>45532</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24945,7 +24945,7 @@
         <v>45202</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25007,7 +25007,7 @@
         <v>45898.58202546297</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25064,7 +25064,7 @@
         <v>45657.94784722223</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45121</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>45898.86685185185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>45597.40140046296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>45279.66864583334</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
         <v>45817.41037037037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
         <v>45071</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25478,7 +25478,7 @@
         <v>45820.39863425926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>45684.4203125</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25597,7 +25597,7 @@
         <v>45678.6377199074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25654,7 +25654,7 @@
         <v>44889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25711,7 +25711,7 @@
         <v>45820.37113425926</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>45903.43489583334</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25830,7 +25830,7 @@
         <v>45903.45952546296</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25892,7 +25892,7 @@
         <v>45678.59783564815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25949,7 +25949,7 @@
         <v>45877</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
         <v>45317</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26068,7 +26068,7 @@
         <v>45202.56994212963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26125,7 +26125,7 @@
         <v>45043</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26182,7 +26182,7 @@
         <v>45904.55924768518</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45453.55534722222</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45824.31493055556</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>45908.46045138889</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26425,7 +26425,7 @@
         <v>45908.47244212963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26487,7 +26487,7 @@
         <v>45478.42675925926</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26549,7 +26549,7 @@
         <v>45098.37322916667</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26606,7 +26606,7 @@
         <v>45824.45221064815</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>45824.32293981482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>45414.39614583334</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26782,7 +26782,7 @@
         <v>45183</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26839,7 +26839,7 @@
         <v>45764.43782407408</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26896,7 +26896,7 @@
         <v>45764.44263888889</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>45043</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27015,7 +27015,7 @@
         <v>45917.34253472222</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27072,7 +27072,7 @@
         <v>45757.66474537037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27129,7 +27129,7 @@
         <v>45758.35732638889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         <v>45240</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27243,7 +27243,7 @@
         <v>45917.34472222222</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27300,7 +27300,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27357,7 +27357,7 @@
         <v>45715.56964120371</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27419,7 +27419,7 @@
         <v>45771.76943287037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27476,7 +27476,7 @@
         <v>44536</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27533,7 +27533,7 @@
         <v>45832</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>45922.61070601852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>45153</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27709,7 +27709,7 @@
         <v>45922.59829861111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>45215</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>45922.60783564814</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>45923.67458333333</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>45096</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45924.65238425926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28061,7 +28061,7 @@
         <v>45833.65659722222</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28118,7 +28118,7 @@
         <v>44599</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28175,7 +28175,7 @@
         <v>44999</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28237,7 +28237,7 @@
         <v>45833.40451388889</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45833.4374537037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45832</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>45832</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>45330</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45219.32268518519</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>45924.61788194445</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>45924.70513888889</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>45468.82832175926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>45201.63637731481</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>45924.61070601852</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44980.48200231481</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>45886</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>45926.61226851852</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45927.83253472222</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45926.58292824074</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45930.36192129629</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44504</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         <v>45836</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29402,7 +29402,7 @@
         <v>45317</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>45838.683125</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29521,7 +29521,7 @@
         <v>45365</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>45405</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>45769.45751157407</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>44923.67971064815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>45933.65831018519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>45933.66274305555</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44930</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44974</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>45936.3762037037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>45043</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>45716.57158564815</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>45092.35369212963</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>45936</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45840.65592592592</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>45840.66978009259</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>44970.65930555556</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>45840.66780092593</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>44865</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>45770.84420138889</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>45873</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         <v>45936</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30748,7 +30748,7 @@
         <v>44908</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30805,7 +30805,7 @@
         <v>44943.56112268518</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30867,7 +30867,7 @@
         <v>44943</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>45211.52641203703</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>45211.52895833334</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>45678.57045138889</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>45678.58166666667</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>45943.57129629629</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>45943.57232638889</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>45943.57040509259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>45943.57618055555</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>45845.65797453704</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31447,7 +31447,7 @@
         <v>45678.44092592593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         <v>45317</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31566,7 +31566,7 @@
         <v>45215.63818287037</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31623,7 +31623,7 @@
         <v>45943.57453703704</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31680,7 +31680,7 @@
         <v>45940.39841435185</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31737,7 +31737,7 @@
         <v>45940.39386574074</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31794,7 +31794,7 @@
         <v>45845.45563657407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31856,7 +31856,7 @@
         <v>44427.49322916667</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31913,7 +31913,7 @@
         <v>45436.41847222222</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31975,7 +31975,7 @@
         <v>45204</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32037,7 +32037,7 @@
         <v>45356.64872685185</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32094,7 +32094,7 @@
         <v>44361</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32151,7 +32151,7 @@
         <v>45215</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32208,7 +32208,7 @@
         <v>45334</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32270,7 +32270,7 @@
         <v>45141</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32332,7 +32332,7 @@
         <v>45817.42607638889</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32389,7 +32389,7 @@
         <v>45736.31508101852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32446,7 +32446,7 @@
         <v>44945.58030092593</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32503,7 +32503,7 @@
         <v>45951.57859953704</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32560,7 +32560,7 @@
         <v>45860</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32622,7 +32622,7 @@
         <v>44936</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32679,7 +32679,7 @@
         <v>44312</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32741,7 +32741,7 @@
         <v>45706.54385416667</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32798,7 +32798,7 @@
         <v>45006</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32860,7 +32860,7 @@
         <v>45673.49019675926</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32922,7 +32922,7 @@
         <v>44286.88952546296</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32979,7 +32979,7 @@
         <v>45582.98494212963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>45798.59671296296</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>45867.7115625</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>45386</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>45954.36793981482</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>44825</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>45645.27707175926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>44237</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33455,7 +33455,7 @@
         <v>45807</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33512,7 +33512,7 @@
         <v>45030</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33569,7 +33569,7 @@
         <v>44433</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>45030.62916666667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44939</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>45093</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>45012</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>45771.66951388889</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>45796</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>45153.36402777778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34045,7 +34045,7 @@
         <v>45960.59640046296</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34107,7 +34107,7 @@
         <v>45709.4119212963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>45960.58719907407</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>45961.39773148148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>45965.66423611111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>45964.60148148148</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>44867</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34469,7 +34469,7 @@
         <v>45373.72511574074</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34526,7 +34526,7 @@
         <v>44980</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45016.64986111111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>45796</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45881</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34764,7 +34764,7 @@
         <v>45254</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45881</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>45742.32277777778</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>45706.54204861111</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>45883.69113425926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>45966.71596064815</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>45497</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>45883.63648148148</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44861</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35292,7 +35292,7 @@
         <v>44607</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>45883.58756944445</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35406,7 +35406,7 @@
         <v>45968.46388888889</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>45968.57751157408</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>45629.7202662037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>45716.37259259259</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35649,7 +35649,7 @@
         <v>45883.5738425926</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35706,7 +35706,7 @@
         <v>45968.57597222222</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35768,7 +35768,7 @@
         <v>45883.59934027777</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35825,7 +35825,7 @@
         <v>45883.58974537037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         <v>45106</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>45764.47553240741</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36001,7 +36001,7 @@
         <v>45706.54572916667</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>45769</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>45266.69091435185</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45435</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36229,7 +36229,7 @@
         <v>45883.74664351852</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36286,7 +36286,7 @@
         <v>44977.57584490741</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>45595</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         <v>45090</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45794.82371527778</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36524,7 +36524,7 @@
         <v>45709.42859953704</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36586,7 +36586,7 @@
         <v>45975.56322916667</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36643,7 +36643,7 @@
         <v>45114</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44630</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>45008.62458333333</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36819,7 +36819,7 @@
         <v>45975.57780092592</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>45975.58162037037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>45250.5799537037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>45884.57759259259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>45884.60458333333</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37114,7 +37114,7 @@
         <v>45976.56569444444</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         <v>44783</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37228,7 +37228,7 @@
         <v>45261.50924768519</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37285,7 +37285,7 @@
         <v>45721.51255787037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37342,7 +37342,7 @@
         <v>45721.51346064815</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>45978.46055555555</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37461,7 +37461,7 @@
         <v>45978.46680555555</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37523,7 +37523,7 @@
         <v>44977.63902777778</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45978.46510416667</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>45978.46326388889</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37709,7 +37709,7 @@
         <v>44719.43200231482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37766,7 +37766,7 @@
         <v>45012.79270833333</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37823,7 +37823,7 @@
         <v>45985.53733796296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37885,7 +37885,7 @@
         <v>45670</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37942,7 +37942,7 @@
         <v>45310</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         <v>45706.47790509259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>45761.59716435185</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38123,7 +38123,7 @@
         <v>45153</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38185,7 +38185,7 @@
         <v>45490.72372685185</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>45769.40231481481</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>44433</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>45985.47957175926</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38423,7 +38423,7 @@
         <v>45986</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38485,7 +38485,7 @@
         <v>45716.45121527778</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38547,7 +38547,7 @@
         <v>45370</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38609,7 +38609,7 @@
         <v>44805</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38671,7 +38671,7 @@
         <v>44746</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38728,7 +38728,7 @@
         <v>44907.65043981482</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38785,7 +38785,7 @@
         <v>45657.95927083334</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38847,7 +38847,7 @@
         <v>45117</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>45121</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         <v>45986.38106481481</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>45986.38231481481</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39095,7 +39095,7 @@
         <v>45986.38013888889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39157,7 +39157,7 @@
         <v>45733.43347222222</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39219,7 +39219,7 @@
         <v>45733.44431712963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39301,7 +39301,7 @@
         <v>46010</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39363,7 +39363,7 @@
         <v>46030.59546296296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>46030.63935185185</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39477,7 +39477,7 @@
         <v>45989.73280092593</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39534,7 +39534,7 @@
         <v>44957</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39596,7 +39596,7 @@
         <v>45394</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39658,7 +39658,7 @@
         <v>44767</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39715,7 +39715,7 @@
         <v>45964</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>45769.41631944444</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>45992.55408564815</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39896,7 +39896,7 @@
         <v>45072</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39958,7 +39958,7 @@
         <v>44974</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40020,7 +40020,7 @@
         <v>45642</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>45106</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40139,7 +40139,7 @@
         <v>44853.64244212963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>46034.33767361111</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44897</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>45629.67508101852</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>45629.67931712963</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>46034.34396990741</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>45478.42675925926</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40548,7 +40548,7 @@
         <v>45727.6683449074</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>45993.43421296297</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40672,7 +40672,7 @@
         <v>45090.90752314815</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40734,7 +40734,7 @@
         <v>45758.56056712963</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40796,7 +40796,7 @@
         <v>44936.46326388889</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40853,7 +40853,7 @@
         <v>46035.88178240741</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44462</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>46037.38564814815</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41034,7 +41034,7 @@
         <v>46037.39449074074</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>45205.35753472222</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>45446.57724537037</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41210,7 +41210,7 @@
         <v>45446.5790625</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41267,7 +41267,7 @@
         <v>45077</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41324,7 +41324,7 @@
         <v>45092</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41381,7 +41381,7 @@
         <v>45278</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41438,7 +41438,7 @@
         <v>46038.58539351852</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41495,7 +41495,7 @@
         <v>45030</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41552,7 +41552,7 @@
         <v>45399.62587962963</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41614,7 +41614,7 @@
         <v>45547.64484953704</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41676,7 +41676,7 @@
         <v>45159</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>45121</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41795,7 +41795,7 @@
         <v>45699</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41852,7 +41852,7 @@
         <v>45699.75583333334</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41909,7 +41909,7 @@
         <v>46041.45574074074</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>46038.4565162037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42028,7 +42028,7 @@
         <v>44910</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>45442.67793981481</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42152,7 +42152,7 @@
         <v>45008.66204861111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>44928.45552083333</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42276,7 +42276,7 @@
         <v>46036</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42338,7 +42338,7 @@
         <v>45637</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42395,7 +42395,7 @@
         <v>45117</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42457,7 +42457,7 @@
         <v>46042.57427083333</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42514,7 +42514,7 @@
         <v>46042.58023148148</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         <v>45373.73894675926</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42628,7 +42628,7 @@
         <v>46042.51780092593</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
         <v>46043.63300925926</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>46043.63504629629</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42799,7 +42799,7 @@
         <v>45527.40489583334</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45678.57731481481</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>46042.58653935185</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45014</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>46042.51780092593</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>46043.62521990741</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>46042.59065972222</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45266</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45049.34974537037</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45049.35048611111</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45266.66998842593</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45432.6291550926</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45954</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>46003</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43602,7 +43602,7 @@
         <v>45237</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43664,7 +43664,7 @@
         <v>44974.564375</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43726,7 +43726,7 @@
         <v>46045.44877314815</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43783,7 +43783,7 @@
         <v>44965</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43840,7 +43840,7 @@
         <v>45747.59501157407</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43902,7 +43902,7 @@
         <v>46046.43557870371</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43959,7 +43959,7 @@
         <v>44834</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>46007.33993055556</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>44652</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>46046.43328703703</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44197,7 +44197,7 @@
         <v>44596</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>46006.43421296297</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44321,7 +44321,7 @@
         <v>46006.42920138889</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45772.6652662037</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44445,7 +44445,7 @@
         <v>46007.54611111111</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44507,7 +44507,7 @@
         <v>46006.44060185185</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44569,7 +44569,7 @@
         <v>46048</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44626,7 +44626,7 @@
         <v>46006.42659722222</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>45771.44005787037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44750,7 +44750,7 @@
         <v>45546</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44807,7 +44807,7 @@
         <v>45796</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44869,7 +44869,7 @@
         <v>45229</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44926,7 +44926,7 @@
         <v>45030.62740740741</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44983,7 +44983,7 @@
         <v>45030</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45040,7 +45040,7 @@
         <v>45188</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45097,7 +45097,7 @@
         <v>46048</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45159,7 +45159,7 @@
         <v>45268</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45216,7 +45216,7 @@
         <v>45550.68804398148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45273,7 +45273,7 @@
         <v>46052.59646990741</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45330,7 +45330,7 @@
         <v>46050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45392,7 +45392,7 @@
         <v>46052.66451388889</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45449,7 +45449,7 @@
         <v>45798</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45511,7 +45511,7 @@
         <v>44439.97621527778</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45573,7 +45573,7 @@
         <v>45797</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45635,7 +45635,7 @@
         <v>45053.82055555555</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45692,7 +45692,7 @@
         <v>44860</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45749,7 +45749,7 @@
         <v>46052.59930555556</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45806,7 +45806,7 @@
         <v>46052.60118055555</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45863,7 +45863,7 @@
         <v>46055.60996527778</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45925,7 +45925,7 @@
         <v>46010.39259259259</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45982,7 +45982,7 @@
         <v>44597</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46039,7 +46039,7 @@
         <v>45014</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46096,7 +46096,7 @@
         <v>46010.49901620371</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46153,7 +46153,7 @@
         <v>44936</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46210,7 +46210,7 @@
         <v>46010.38619212963</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46267,7 +46267,7 @@
         <v>46010.52946759259</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46324,7 +46324,7 @@
         <v>45723.65960648148</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46381,7 +46381,7 @@
         <v>46014</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>46014</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46495,7 +46495,7 @@
         <v>44455.68550925926</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46552,7 +46552,7 @@
         <v>44588</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>44494</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46666,7 +46666,7 @@
         <v>45274.43547453704</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46723,7 +46723,7 @@
         <v>45558.54422453704</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46780,7 +46780,7 @@
         <v>45558</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46837,7 +46837,7 @@
         <v>44859</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46899,7 +46899,7 @@
         <v>45336</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>44582</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47013,7 +47013,7 @@
         <v>45442.6052199074</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47075,7 +47075,7 @@
         <v>45442.60829861111</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47137,7 +47137,7 @@
         <v>45442.68033564815</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47199,7 +47199,7 @@
         <v>45183.65135416666</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47256,7 +47256,7 @@
         <v>45183.65233796297</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47313,7 +47313,7 @@
         <v>45043</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47370,7 +47370,7 @@
         <v>45736.72646990741</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47427,7 +47427,7 @@
         <v>45509.57052083333</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47484,7 +47484,7 @@
         <v>45369.61550925926</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47541,7 +47541,7 @@
         <v>45145</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47598,7 +47598,7 @@
         <v>45215.63990740741</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47655,7 +47655,7 @@
         <v>44936</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47712,7 +47712,7 @@
         <v>44890</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47774,7 +47774,7 @@
         <v>45769</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47831,7 +47831,7 @@
         <v>45013.63658564815</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47888,7 +47888,7 @@
         <v>44956.54967592593</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47950,7 +47950,7 @@
         <v>44721</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48007,7 +48007,7 @@
         <v>45117</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48069,7 +48069,7 @@
         <v>44980</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48131,7 +48131,7 @@
         <v>45763.41083333334</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48193,7 +48193,7 @@
         <v>45217.51479166667</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48250,7 +48250,7 @@
         <v>45191.39708333334</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48307,7 +48307,7 @@
         <v>45733.62203703704</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48369,7 +48369,7 @@
         <v>44448</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48426,7 +48426,7 @@
         <v>44803.59099537037</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48483,7 +48483,7 @@
         <v>45178.43909722222</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48545,7 +48545,7 @@
         <v>44860</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48602,7 +48602,7 @@
         <v>44939</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48664,7 +48664,7 @@
         <v>44987.5428587963</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48721,7 +48721,7 @@
         <v>44956</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48783,7 +48783,7 @@
         <v>45379</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48840,7 +48840,7 @@
         <v>44677</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48897,7 +48897,7 @@
         <v>45126</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48954,7 +48954,7 @@
         <v>45126</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49011,7 +49011,7 @@
         <v>44384</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49073,7 +49073,7 @@
         <v>45741.63417824074</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49135,7 +49135,7 @@
         <v>45268</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49192,7 +49192,7 @@
         <v>44907.66710648148</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49249,7 +49249,7 @@
         <v>45114</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49311,7 +49311,7 @@
         <v>45114</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49368,7 +49368,7 @@
         <v>44742</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49425,7 +49425,7 @@
         <v>44469</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49482,7 +49482,7 @@
         <v>45723.66629629629</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49539,7 +49539,7 @@
         <v>45614.46292824074</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49601,7 +49601,7 @@
         <v>44679</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49663,7 +49663,7 @@
         <v>45359.68173611111</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49720,7 +49720,7 @@
         <v>44880.44351851852</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49782,7 +49782,7 @@
         <v>44414</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49839,7 +49839,7 @@
         <v>45048</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49901,7 +49901,7 @@
         <v>44936</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49963,7 +49963,7 @@
         <v>44936</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50025,7 +50025,7 @@
         <v>45106</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50082,7 +50082,7 @@
         <v>45747.44502314815</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50139,7 +50139,7 @@
         <v>45769.57802083333</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50196,7 +50196,7 @@
         <v>45769</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50253,7 +50253,7 @@
         <v>45178.4275</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50315,7 +50315,7 @@
         <v>44488</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50372,7 +50372,7 @@
         <v>44994.41405092592</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50429,7 +50429,7 @@
         <v>45028</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50486,7 +50486,7 @@
         <v>45442.38490740741</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50543,7 +50543,7 @@
         <v>45408.49326388889</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50600,7 +50600,7 @@
         <v>45106</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50657,7 +50657,7 @@
         <v>45716.40918981482</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50719,7 +50719,7 @@
         <v>44862</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50781,7 +50781,7 @@
         <v>45684.41622685185</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50843,7 +50843,7 @@
         <v>45043.49425925926</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50900,7 +50900,7 @@
         <v>44236</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50962,7 +50962,7 @@
         <v>44805</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51024,7 +51024,7 @@
         <v>45201.56556712963</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51081,7 +51081,7 @@
         <v>45132</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51143,7 +51143,7 @@
         <v>45373.48878472222</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51200,7 +51200,7 @@
         <v>45527.43385416667</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51257,7 +51257,7 @@
         <v>44992</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51314,7 +51314,7 @@
         <v>44641.78332175926</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51371,7 +51371,7 @@
         <v>45252</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51428,7 +51428,7 @@
         <v>45369.61841435185</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51485,7 +51485,7 @@
         <v>45673</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51542,7 +51542,7 @@
         <v>45128</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51599,7 +51599,7 @@
         <v>45758.60146990741</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51656,7 +51656,7 @@
         <v>45686.61590277778</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51718,7 +51718,7 @@
         <v>45741.51940972222</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51780,7 +51780,7 @@
         <v>45096</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51842,7 +51842,7 @@
         <v>45638</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51904,7 +51904,7 @@
         <v>45246.41627314815</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51961,7 +51961,7 @@
         <v>45246</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52018,7 +52018,7 @@
         <v>45174</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         <v>45174</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45457.59425925926</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45092.36790509259</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>44981</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52308,7 +52308,7 @@
         <v>45414.3944212963</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52365,7 +52365,7 @@
         <v>45254</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52427,7 +52427,7 @@
         <v>45027</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52484,7 +52484,7 @@
         <v>45425.89037037037</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52541,7 +52541,7 @@
         <v>45581.62796296296</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>45091</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52660,7 +52660,7 @@
         <v>45369.62108796297</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52717,7 +52717,7 @@
         <v>45071</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52774,7 +52774,7 @@
         <v>45043</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52831,7 +52831,7 @@
         <v>45442.61221064815</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         <v>44358</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52955,7 +52955,7 @@
         <v>45008</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53012,7 +53012,7 @@
         <v>45763.64096064815</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53074,7 +53074,7 @@
         <v>45699.65944444444</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53136,7 +53136,7 @@
         <v>45339.5277199074</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53193,7 +53193,7 @@
         <v>45758.60465277778</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53250,7 +53250,7 @@
         <v>45758.61055555556</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53307,7 +53307,7 @@
         <v>45093.54811342592</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44992</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44980</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53483,7 +53483,7 @@
         <v>45453.52299768518</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53540,7 +53540,7 @@
         <v>45252.91344907408</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53597,7 +53597,7 @@
         <v>45636.45025462963</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53654,7 +53654,7 @@
         <v>45636.4737962963</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53711,7 +53711,7 @@
         <v>44243</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53768,7 +53768,7 @@
         <v>45731.59962962963</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53825,7 +53825,7 @@
         <v>44573</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53882,7 +53882,7 @@
         <v>44333</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53939,7 +53939,7 @@
         <v>45330</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -53996,7 +53996,7 @@
         <v>44279</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54053,7 +54053,7 @@
         <v>44862</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54115,7 +54115,7 @@
         <v>45719.4522337963</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54172,7 +54172,7 @@
         <v>44573.38521990741</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54229,7 +54229,7 @@
         <v>45405</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54286,7 +54286,7 @@
         <v>45110</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54348,7 +54348,7 @@
         <v>44713.58678240741</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54405,7 +54405,7 @@
         <v>45336</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54462,7 +54462,7 @@
         <v>45016.67141203704</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54524,7 +54524,7 @@
         <v>45112</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54581,7 +54581,7 @@
         <v>45043</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54643,7 +54643,7 @@
         <v>44739.52209490741</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54700,7 +54700,7 @@
         <v>44364.78170138889</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54757,7 +54757,7 @@
         <v>45317</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54819,7 +54819,7 @@
         <v>45432.54622685185</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54876,7 +54876,7 @@
         <v>45715.5837962963</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54938,7 +54938,7 @@
         <v>45726.90959490741</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -54995,7 +54995,7 @@
         <v>45723.67724537037</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55052,7 +55052,7 @@
         <v>45030.61489583334</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55109,7 +55109,7 @@
         <v>45030.61744212963</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55166,7 +55166,7 @@
         <v>45254</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55228,7 +55228,7 @@
         <v>44455</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55285,7 +55285,7 @@
         <v>45205.3119212963</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55342,7 +55342,7 @@
         <v>44851</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55399,7 +55399,7 @@
         <v>45129</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55456,7 +55456,7 @@
         <v>45478.47236111111</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55518,7 +55518,7 @@
         <v>44957</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55580,7 +55580,7 @@
         <v>45403.86942129629</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55637,7 +55637,7 @@
         <v>45033</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55694,7 +55694,7 @@
         <v>45593.59819444444</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55756,7 +55756,7 @@
         <v>45037</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55813,7 +55813,7 @@
         <v>45030</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55870,7 +55870,7 @@
         <v>45048</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55927,7 +55927,7 @@
         <v>45777.61991898148</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         <v>45726.91224537037</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56046,7 +56046,7 @@
         <v>45783</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56103,7 +56103,7 @@
         <v>45783.48681712963</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56165,7 +56165,7 @@
         <v>45782.66719907407</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56222,7 +56222,7 @@
         <v>45671.62931712963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56279,7 +56279,7 @@
         <v>45784</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56336,7 +56336,7 @@
         <v>45784.62866898148</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56398,7 +56398,7 @@
         <v>45786</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56460,7 +56460,7 @@
         <v>45786.36358796297</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56522,7 +56522,7 @@
         <v>45789.42597222222</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56579,7 +56579,7 @@
         <v>45587.58498842592</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56641,7 +56641,7 @@
         <v>44565</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56703,7 +56703,7 @@
         <v>45092.36126157407</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56760,7 +56760,7 @@
         <v>45453.54733796296</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56817,7 +56817,7 @@
         <v>45453.55123842593</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56874,7 +56874,7 @@
         <v>45310.41982638889</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56931,7 +56931,7 @@
         <v>45790</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56988,7 +56988,7 @@
         <v>45792.42109953704</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57045,7 +57045,7 @@
         <v>45792.42542824074</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57102,7 +57102,7 @@
         <v>45259</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57159,7 +57159,7 @@
         <v>45796.36326388889</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57221,7 +57221,7 @@
         <v>45678.57503472222</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57278,7 +57278,7 @@
         <v>45797.39876157408</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57335,7 +57335,7 @@
         <v>45796.49842592593</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57392,7 +57392,7 @@
         <v>45794.82583333334</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57449,7 +57449,7 @@
         <v>45794.81975694445</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45798</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44264</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45917.58798611111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45922.55509259259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45139</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>45783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45579</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45645.27462962963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45880.62738425926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45886.64045138889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45568</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45723.61545138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45922.57796296296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>45723.57098379629</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>45604</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>45817.47909722223</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2614,7 +2614,7 @@
         <v>45742.41269675926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>45723.55663194445</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>45832.36966435185</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45968.35777777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44578</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45723.59275462963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>45731.65016203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45917.46651620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         <v>45917.60378472223</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>45881.41636574074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>45568</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>45042</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>45441.33914351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>45583</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>45884.4946875</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>45832.31648148148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>45833.56057870371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>45905.42704861111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>45771.69168981481</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>45922.60398148148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>45978.67916666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>45764.47825231482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>45013.77040509259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         <v>45727.64337962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>45604</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>45733.45780092593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45568.44137731481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>45832.3365625</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>45583</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>44789</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>45086</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>45905</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>45985.5396875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>45694</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>44886.54420138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45258.56491898148</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>45758.54390046297</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45783.68689814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>45782.659375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44480</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>44426</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>44452</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>44524</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>44490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>45042</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>45362</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>45583.3479050926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>45583</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>45747.58131944444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45174</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44777.49493055556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>45742.43848379629</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>45583</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>45744</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         <v>45744.41443287037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44993</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>45905.58907407407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>45917.5712037037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>45369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>45924.69556712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>45421</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>45964.60429398148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>45968.57920138889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>45580</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>45723.66964120371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>45117</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>46043.58462962963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>45702.76395833334</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>45770.63996527778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>46048</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>45201</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45096</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>45056</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>45201</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45408</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>45716.5672337963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45376</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>45411.57177083333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>45251</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10294,7 +10294,7 @@
         <v>44354</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>45348.68336805556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>45763.60795138889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45783.61222222223</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>45796</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44456</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44456</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44301</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44307</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44582.4696875</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44530</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>44502</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>44622</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>44537</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>44825.47923611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>44340.80107638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>44739</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>44368</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>44719.43086805556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         <v>44258</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         <v>44503</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44370</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44440</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44368</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44441</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>44301</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>44865</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44294</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>44286</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44524.67836805555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44385</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44696.775</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44390</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>44433</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>44447</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>44368.88704861111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>44340</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44713</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44671</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44813</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44515</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13254,7 +13254,7 @@
         <v>44571</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44442.66228009259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>44272</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44630.3978587963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13668,7 +13668,7 @@
         <v>44371</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>44393</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>44447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44524</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44271.81282407408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44530</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>44503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>44313</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>44300</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>44300</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>44459</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>44446</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44321</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>44879.39153935185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>44459</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>44475</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44249</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>44574</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44686</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44602</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>44889.55255787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>44328</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>44452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>44825</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15200,7 +15200,7 @@
         <v>44756</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>44582</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44741.57063657408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15433,7 +15433,7 @@
         <v>44302</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>44730</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>44354.45140046296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>44578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>44326</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44326</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>44886.47697916667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15966,7 +15966,7 @@
         <v>44449</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16028,7 +16028,7 @@
         <v>44358</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44432</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>44740</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>44270</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>44348</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16318,7 +16318,7 @@
         <v>44874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16375,7 +16375,7 @@
         <v>44252</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>44441</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>44452</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>44272</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>44363</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>44344.49251157408</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44313</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44363</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>44726</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>44487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16990,7 +16990,7 @@
         <v>44596</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17047,7 +17047,7 @@
         <v>44468</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17109,7 +17109,7 @@
         <v>44630</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44279</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>44445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>44557</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44869.4575</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>45706.42958333333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44322</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44249</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>45758.36203703703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>45644</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45678.47236111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45469.43265046296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>45118</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44900</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45086.71662037037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>45401.46640046296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>44783</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>45076</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>44651.42819444444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>45386.32806712963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18470,7 +18470,7 @@
         <v>44512</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>45579.56570601852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>45191</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45706.49520833333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45106</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45716.39159722222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45520.52375</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>44935.64165509259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>45093</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45053.36554398148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>44861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45110</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>44998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>45266</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45356.66037037037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45092.35266203704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>44974.65918981482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45636.45989583333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45313</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>45238.33091435185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>44741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>45583.55850694444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>45583.34371527778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45386.35986111111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>45043.53597222222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>45022.34695601852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>45527.41597222222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>45254.54892361111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20111,7 +20111,7 @@
         <v>44970.44197916667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44862</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>45535.91413194445</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>45356.64724537037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44980</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>45702.76590277778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44956</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>45764.43002314815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44966.57550925926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45246.41783564815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45742.31784722222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44575</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44936</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45414.5519212963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>45272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>45274</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44754.57658564814</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>45603.49528935185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>45400</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21229,7 +21229,7 @@
         <v>45174</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21286,7 +21286,7 @@
         <v>45174.87439814815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         <v>45363.58979166667</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45628.56513888889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>45731.60166666667</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44897</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>44896</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>44935.60138888889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45436.41305555555</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>45758.56946759259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21948,7 +21948,7 @@
         <v>45817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         <v>45817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22062,7 +22062,7 @@
         <v>45887</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22119,7 +22119,7 @@
         <v>45794.82150462963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>44950</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>44644</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22295,7 +22295,7 @@
         <v>45884.68263888889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>45886.65516203704</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22471,7 +22471,7 @@
         <v>45884.45916666667</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>45110.56027777777</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>45110</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>45657.94784722223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44439.97621527778</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>45671.59245370371</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>45096</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>45532</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>45820.39863425926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>45202</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45820.37113425926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>45121</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23190,7 +23190,7 @@
         <v>45597.40140046296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23247,7 +23247,7 @@
         <v>45888.61847222222</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45824.31493055556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45279.66864583334</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23433,7 +23433,7 @@
         <v>45071</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23490,7 +23490,7 @@
         <v>45888.46922453704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>45684.4203125</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>45889</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>45678.6377199074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>45888.4658449074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>45889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>45824.45221064815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45824.32293981482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>45794.81583333333</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>45678.59783564815</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>45317</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24194,7 +24194,7 @@
         <v>45888.4712037037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>45202.56994212963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>45891.59726851852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>45891.59938657407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>45813.56320601852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>45043</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45891.60103009259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45453.55534722222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45891.60346064815</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45478.42675925926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>45894.41133101852</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45098.37322916667</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24893,7 +24893,7 @@
         <v>45895.42582175926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45895.373125</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>45895.3627662037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25079,7 +25079,7 @@
         <v>45894.55337962963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25141,7 +25141,7 @@
         <v>45894.4825</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25203,7 +25203,7 @@
         <v>45729</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45894.55216435185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25327,7 +25327,7 @@
         <v>45414.39614583334</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45896.66505787037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>45832</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>45896.81087962963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>45833.65659722222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25612,7 +25612,7 @@
         <v>45183</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>45833.40451388889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>45896.66944444444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>45833.4374537037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>45832</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>45832</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>45764.43782407408</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>45764.44263888889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45043</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>45898.58202546297</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>45757.66474537037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>45758.35732638889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>45240</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>45898.86685185185</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>45817.41037037037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>45118</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>45903.43489583334</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>45903.45952546296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26658,7 +26658,7 @@
         <v>45877</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44504</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>45836</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>45838.683125</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>45715.56964120371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26953,7 +26953,7 @@
         <v>44536</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         <v>45153</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27072,7 +27072,7 @@
         <v>45904.55924768518</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>45215</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>45908.46045138889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27253,7 +27253,7 @@
         <v>45908.47244212963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27315,7 +27315,7 @@
         <v>45096</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>44599</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>44999</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
         <v>45049</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27553,7 +27553,7 @@
         <v>45330</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27610,7 +27610,7 @@
         <v>45840.65592592592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         <v>45840.66978009259</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>45219.32268518519</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45840.66780092593</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>45468.82832175926</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45201.63637731481</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45845.65797453704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45678.44092592593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>44980.48200231481</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28133,7 +28133,7 @@
         <v>45845.45563657407</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45917.34253472222</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>45917.34472222222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45317</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45817.42607638889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>45736.31508101852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>45365</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45405</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45769.45751157407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>44923.67971064815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28728,7 +28728,7 @@
         <v>45771.76943287037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>44930</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>45922.61070601852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28899,7 +28899,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28961,7 +28961,7 @@
         <v>45860</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29023,7 +29023,7 @@
         <v>45922.59829861111</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29080,7 +29080,7 @@
         <v>45922.60783564814</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>45923.67458333333</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29194,7 +29194,7 @@
         <v>45924.65238425926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29256,7 +29256,7 @@
         <v>45706.54385416667</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>45043</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29370,7 +29370,7 @@
         <v>45716.57158564815</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>45924.61788194445</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>45924.70513888889</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>45092.35369212963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29603,7 +29603,7 @@
         <v>44286.88952546296</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>45798.59671296296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29722,7 +29722,7 @@
         <v>44970.65930555556</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44865</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>45867.7115625</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>45770.84420138889</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>45924.61070601852</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30012,7 +30012,7 @@
         <v>44908</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         <v>44943.56112268518</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30131,7 +30131,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>45211.52641203703</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>45211.52895833334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>45886</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>45678.57045138889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>45678.58166666667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>45926.61226851852</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30535,7 +30535,7 @@
         <v>45927.83253472222</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30592,7 +30592,7 @@
         <v>45926.58292824074</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45317</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30711,7 +30711,7 @@
         <v>45215.63818287037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>45930.36192129629</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>44427.49322916667</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>45807</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>45436.41847222222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31001,7 +31001,7 @@
         <v>45204</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>45356.64872685185</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>44361</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>45796</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31234,7 +31234,7 @@
         <v>45933.65831018519</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45933.66274305555</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45215</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>45334</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31472,7 +31472,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31534,7 +31534,7 @@
         <v>44945.58030092593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31591,7 +31591,7 @@
         <v>45796</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>45881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45936.3762037037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31767,7 +31767,7 @@
         <v>45881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31829,7 +31829,7 @@
         <v>45706.54204861111</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31886,7 +31886,7 @@
         <v>45883.69113425926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31943,7 +31943,7 @@
         <v>45883.63648148148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32000,7 +32000,7 @@
         <v>45883.58756944445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32057,7 +32057,7 @@
         <v>45883.5738425926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32114,7 +32114,7 @@
         <v>45883.59934027777</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>45883.58974537037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>45936</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>45764.47553240741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>44936</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32404,7 +32404,7 @@
         <v>44312</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         <v>45883.74664351852</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>45794.82371527778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32580,7 +32580,7 @@
         <v>45006</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>45873</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>45936</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>45673.49019675926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>45582.98494212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>45943.57129629629</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>45943.57232638889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>45386</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>45943.57040509259</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>45943.57618055555</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         <v>45943.57453703704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33222,7 +33222,7 @@
         <v>45940.39841435185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33279,7 +33279,7 @@
         <v>45940.39386574074</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33336,7 +33336,7 @@
         <v>44825</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
         <v>45645.27707175926</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>45884.57759259259</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33512,7 +33512,7 @@
         <v>45884.60458333333</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>45887</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>45030</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44433</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>45030.62916666667</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44939</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>45093</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>45012</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>45771.66951388889</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34045,7 +34045,7 @@
         <v>45153.36402777778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34107,7 +34107,7 @@
         <v>45951.57859953704</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>45709.4119212963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44867</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>45373.72511574074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34345,7 +34345,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34407,7 +34407,7 @@
         <v>45016.64986111111</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34469,7 +34469,7 @@
         <v>45254</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45742.32277777778</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45497</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44861</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>45954.36793981482</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44607</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>45629.7202662037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>45716.37259259259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>45106</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>45706.54572916667</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>45769</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>45266.69091435185</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>45435</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44977.57584490741</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35292,7 +35292,7 @@
         <v>45960.59640046296</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>45595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>45960.58719907407</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>45090</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>45709.42859953704</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>45961.39773148148</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>45114</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35711,7 +35711,7 @@
         <v>44630</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35768,7 +35768,7 @@
         <v>45008.62458333333</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35830,7 +35830,7 @@
         <v>45250.5799537037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         <v>45965.66423611111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>45964.60148148148</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36006,7 +36006,7 @@
         <v>44783</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36063,7 +36063,7 @@
         <v>45261.50924768519</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36120,7 +36120,7 @@
         <v>45721.51255787037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36177,7 +36177,7 @@
         <v>45721.51346064815</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36234,7 +36234,7 @@
         <v>44977.63902777778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36296,7 +36296,7 @@
         <v>45966.71596064815</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>44719.43200231482</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45012.79270833333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45968.46388888889</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36529,7 +36529,7 @@
         <v>45968.57751157408</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36591,7 +36591,7 @@
         <v>45968.57597222222</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45670</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45310</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36772,7 +36772,7 @@
         <v>45706.47790509259</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45761.59716435185</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36891,7 +36891,7 @@
         <v>45153</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36953,7 +36953,7 @@
         <v>45490.72372685185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37010,7 +37010,7 @@
         <v>45769.40231481481</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37072,7 +37072,7 @@
         <v>44433</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>45716.45121527778</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37191,7 +37191,7 @@
         <v>45975.56322916667</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37248,7 +37248,7 @@
         <v>45370</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37310,7 +37310,7 @@
         <v>44805</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>45975.57780092592</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37429,7 +37429,7 @@
         <v>44746</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>45975.58162037037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37543,7 +37543,7 @@
         <v>44907.65043981482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37600,7 +37600,7 @@
         <v>45657.95927083334</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>45117</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37724,7 +37724,7 @@
         <v>45121</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37786,7 +37786,7 @@
         <v>45976.56569444444</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37843,7 +37843,7 @@
         <v>45733.43347222222</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37905,7 +37905,7 @@
         <v>45733.44431712963</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>45978.46055555555</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>45978.46680555555</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>45978.46510416667</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>45978.46326388889</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>45985.53733796296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44957</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38359,7 +38359,7 @@
         <v>45394</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>44767</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>45769.41631944444</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38540,7 +38540,7 @@
         <v>45072</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38602,7 +38602,7 @@
         <v>45985.47957175926</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38664,7 +38664,7 @@
         <v>44974</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38726,7 +38726,7 @@
         <v>45642</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38788,7 +38788,7 @@
         <v>45106</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38845,7 +38845,7 @@
         <v>45986</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38907,7 +38907,7 @@
         <v>44853.64244212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38964,7 +38964,7 @@
         <v>44897</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         <v>45629.67508101852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39083,7 +39083,7 @@
         <v>45629.67931712963</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45986.38106481481</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>45986.38231481481</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39264,7 +39264,7 @@
         <v>45986.38013888889</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39326,7 +39326,7 @@
         <v>45478.42675925926</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>45727.6683449074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>45090.90752314815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>45758.56056712963</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44936.46326388889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39631,7 +39631,7 @@
         <v>45989.73280092593</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39688,7 +39688,7 @@
         <v>45964</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39745,7 +39745,7 @@
         <v>45992.55408564815</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39807,7 +39807,7 @@
         <v>44462</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39864,7 +39864,7 @@
         <v>45205.35753472222</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39921,7 +39921,7 @@
         <v>46034.33767361111</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39978,7 +39978,7 @@
         <v>45446.57724537037</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40035,7 +40035,7 @@
         <v>45446.5790625</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40092,7 +40092,7 @@
         <v>46034.34396990741</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40149,7 +40149,7 @@
         <v>45077</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>45092</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>45278</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40320,7 +40320,7 @@
         <v>45993.43421296297</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>45030</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40439,7 +40439,7 @@
         <v>45399.62587962963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40501,7 +40501,7 @@
         <v>45547.64484953704</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>45159</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>46035.88178240741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>45121</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>45699</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>45699.75583333334</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>46037.38564814815</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>46037.39449074074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40982,7 +40982,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41044,7 +41044,7 @@
         <v>45442.67793981481</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         <v>45008.66204861111</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41168,7 +41168,7 @@
         <v>44928.45552083333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41230,7 +41230,7 @@
         <v>45637</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41287,7 +41287,7 @@
         <v>45117</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41349,7 +41349,7 @@
         <v>46038.58539351852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41406,7 +41406,7 @@
         <v>46041.45574074074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41468,7 +41468,7 @@
         <v>45373.73894675926</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41525,7 +41525,7 @@
         <v>46038.4565162037</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41582,7 +41582,7 @@
         <v>46036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41644,7 +41644,7 @@
         <v>45527.40489583334</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41701,7 +41701,7 @@
         <v>45678.57731481481</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41758,7 +41758,7 @@
         <v>45014</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41815,7 +41815,7 @@
         <v>46042.51780092593</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41872,7 +41872,7 @@
         <v>45266</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41929,7 +41929,7 @@
         <v>45049.34974537037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         <v>45049.35048611111</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42043,7 +42043,7 @@
         <v>45266.66998842593</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42100,7 +42100,7 @@
         <v>45432.6291550926</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42157,7 +42157,7 @@
         <v>46043.63300925926</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42214,7 +42214,7 @@
         <v>46043.63504629629</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>45237</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>46042.51780092593</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>46043.62521990741</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42447,7 +42447,7 @@
         <v>46042.59065972222</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42504,7 +42504,7 @@
         <v>44974.564375</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44965</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>45954</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>45747.59501157407</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42742,7 +42742,7 @@
         <v>44834</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42804,7 +42804,7 @@
         <v>46003</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>44652</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42923,7 +42923,7 @@
         <v>46045.44877314815</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42980,7 +42980,7 @@
         <v>44596</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43042,7 +43042,7 @@
         <v>45772.6652662037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>46046.43557870371</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43161,7 +43161,7 @@
         <v>46007.33993055556</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45771.44005787037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45546</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>46046.43328703703</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45229</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>46006.43421296297</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>45030.62740740741</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43575,7 +43575,7 @@
         <v>45030</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43632,7 +43632,7 @@
         <v>46006.42920138889</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43694,7 +43694,7 @@
         <v>45188</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43751,7 +43751,7 @@
         <v>46007.54611111111</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43813,7 +43813,7 @@
         <v>46006.44060185185</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43875,7 +43875,7 @@
         <v>46048</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43932,7 +43932,7 @@
         <v>46006.42659722222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43994,7 +43994,7 @@
         <v>45268</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44051,7 +44051,7 @@
         <v>45550.68804398148</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44108,7 +44108,7 @@
         <v>44439.97621527778</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44170,7 +44170,7 @@
         <v>46048</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44232,7 +44232,7 @@
         <v>45053.82055555555</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44289,7 +44289,7 @@
         <v>44860</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>44597</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44403,7 +44403,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44460,7 +44460,7 @@
         <v>46052.59646990741</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44517,7 +44517,7 @@
         <v>44936</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44574,7 +44574,7 @@
         <v>46052.66451388889</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44631,7 +44631,7 @@
         <v>45723.65960648148</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>44455.68550925926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44745,7 +44745,7 @@
         <v>44588</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44802,7 +44802,7 @@
         <v>46052.59930555556</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44859,7 +44859,7 @@
         <v>46052.60118055555</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>46055.60996527778</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44978,7 +44978,7 @@
         <v>46010.39259259259</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45035,7 +45035,7 @@
         <v>46010.49901620371</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45092,7 +45092,7 @@
         <v>46010.38619212963</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>46010.52946759259</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45206,7 +45206,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45263,7 +45263,7 @@
         <v>46014</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45320,7 +45320,7 @@
         <v>46014</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45377,7 +45377,7 @@
         <v>45274.43547453704</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45434,7 +45434,7 @@
         <v>45558.54422453704</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45491,7 +45491,7 @@
         <v>45558</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45548,7 +45548,7 @@
         <v>44859</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45610,7 +45610,7 @@
         <v>45336</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         <v>44582</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45724,7 +45724,7 @@
         <v>45442.6052199074</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45786,7 +45786,7 @@
         <v>45442.60829861111</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45848,7 +45848,7 @@
         <v>45442.68033564815</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45910,7 +45910,7 @@
         <v>45183.65135416666</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45967,7 +45967,7 @@
         <v>45183.65233796297</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46024,7 +46024,7 @@
         <v>45043</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46081,7 +46081,7 @@
         <v>45736.72646990741</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>45509.57052083333</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46195,7 +46195,7 @@
         <v>45369.61550925926</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46252,7 +46252,7 @@
         <v>45145</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46309,7 +46309,7 @@
         <v>45215.63990740741</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46366,7 +46366,7 @@
         <v>44936</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46423,7 +46423,7 @@
         <v>44890</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46485,7 +46485,7 @@
         <v>45796</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46547,7 +46547,7 @@
         <v>45769</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46604,7 +46604,7 @@
         <v>45013.63658564815</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46661,7 +46661,7 @@
         <v>44956.54967592593</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46723,7 +46723,7 @@
         <v>44721</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46780,7 +46780,7 @@
         <v>45117</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>44980</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46904,7 +46904,7 @@
         <v>46042.58023148148</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46961,7 +46961,7 @@
         <v>45763.41083333334</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47023,7 +47023,7 @@
         <v>45217.51479166667</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45191.39708333334</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47137,7 +47137,7 @@
         <v>46042.57427083333</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47194,7 +47194,7 @@
         <v>45733.62203703704</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47256,7 +47256,7 @@
         <v>44448</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47313,7 +47313,7 @@
         <v>46042.58653935185</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47370,7 +47370,7 @@
         <v>44803.59099537037</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47427,7 +47427,7 @@
         <v>45178.43909722222</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47489,7 +47489,7 @@
         <v>44860</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47546,7 +47546,7 @@
         <v>44939</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47608,7 +47608,7 @@
         <v>44987.5428587963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47665,7 +47665,7 @@
         <v>46061</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47722,7 +47722,7 @@
         <v>44956</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47784,7 +47784,7 @@
         <v>45379</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47841,7 +47841,7 @@
         <v>44677</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47898,7 +47898,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47955,7 +47955,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48012,7 +48012,7 @@
         <v>44384</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48074,7 +48074,7 @@
         <v>46030.63935185185</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48131,7 +48131,7 @@
         <v>45741.63417824074</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48193,7 +48193,7 @@
         <v>46010</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48255,7 +48255,7 @@
         <v>45268</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48312,7 +48312,7 @@
         <v>44907.66710648148</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48369,7 +48369,7 @@
         <v>45114</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48431,7 +48431,7 @@
         <v>45114</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48488,7 +48488,7 @@
         <v>45797</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48550,7 +48550,7 @@
         <v>44742</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48607,7 +48607,7 @@
         <v>46072.58601851852</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48669,7 +48669,7 @@
         <v>44469</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48726,7 +48726,7 @@
         <v>46072.59584490741</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48788,7 +48788,7 @@
         <v>45723.66629629629</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48845,7 +48845,7 @@
         <v>46050</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         <v>46030.59546296296</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48964,7 +48964,7 @@
         <v>45798</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         <v>45614.46292824074</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>44679</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49150,7 +49150,7 @@
         <v>45359.68173611111</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49207,7 +49207,7 @@
         <v>44880.44351851852</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49269,7 +49269,7 @@
         <v>44414</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49326,7 +49326,7 @@
         <v>45048</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49388,7 +49388,7 @@
         <v>44936</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49450,7 +49450,7 @@
         <v>44936</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49512,7 +49512,7 @@
         <v>45106</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49569,7 +49569,7 @@
         <v>45747.44502314815</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49626,7 +49626,7 @@
         <v>45769.57802083333</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49683,7 +49683,7 @@
         <v>45769</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49740,7 +49740,7 @@
         <v>45178.4275</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>44488</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>44994.41405092592</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49916,7 +49916,7 @@
         <v>45028</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49973,7 +49973,7 @@
         <v>45442.38490740741</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50030,7 +50030,7 @@
         <v>45408.49326388889</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50087,7 +50087,7 @@
         <v>45106</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50144,7 +50144,7 @@
         <v>45716.40918981482</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50206,7 +50206,7 @@
         <v>44862</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50268,7 +50268,7 @@
         <v>45684.41622685185</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>45043.49425925926</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50387,7 +50387,7 @@
         <v>44805</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50449,7 +50449,7 @@
         <v>45201.56556712963</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50506,7 +50506,7 @@
         <v>45132</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50568,7 +50568,7 @@
         <v>45373.48878472222</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50625,7 +50625,7 @@
         <v>45527.43385416667</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50682,7 +50682,7 @@
         <v>44992</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50739,7 +50739,7 @@
         <v>44641.78332175926</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50796,7 +50796,7 @@
         <v>45252</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50853,7 +50853,7 @@
         <v>45369.61841435185</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50910,7 +50910,7 @@
         <v>45673</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50967,7 +50967,7 @@
         <v>45128</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51024,7 +51024,7 @@
         <v>45758.60146990741</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51081,7 +51081,7 @@
         <v>45686.61590277778</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51143,7 +51143,7 @@
         <v>45741.51940972222</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51205,7 +51205,7 @@
         <v>45096</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51267,7 +51267,7 @@
         <v>45638</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51329,7 +51329,7 @@
         <v>45246.41627314815</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45246</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45174</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45174</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45457.59425925926</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51614,7 +51614,7 @@
         <v>45092.36790509259</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51671,7 +51671,7 @@
         <v>44981</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51733,7 +51733,7 @@
         <v>45414.3944212963</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51790,7 +51790,7 @@
         <v>45254</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51852,7 +51852,7 @@
         <v>45027</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51909,7 +51909,7 @@
         <v>45425.89037037037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51966,7 +51966,7 @@
         <v>45581.62796296296</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52023,7 +52023,7 @@
         <v>45091</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52085,7 +52085,7 @@
         <v>45369.62108796297</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52142,7 +52142,7 @@
         <v>45071</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52199,7 +52199,7 @@
         <v>45043</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52256,7 +52256,7 @@
         <v>45442.61221064815</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52318,7 +52318,7 @@
         <v>44358</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52380,7 +52380,7 @@
         <v>45008</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52437,7 +52437,7 @@
         <v>45763.64096064815</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52499,7 +52499,7 @@
         <v>45699.65944444444</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52561,7 +52561,7 @@
         <v>45339.5277199074</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52618,7 +52618,7 @@
         <v>45758.60465277778</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52675,7 +52675,7 @@
         <v>45758.61055555556</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52732,7 +52732,7 @@
         <v>45093.54811342592</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52789,7 +52789,7 @@
         <v>44992</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52846,7 +52846,7 @@
         <v>44980</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52908,7 +52908,7 @@
         <v>45453.52299768518</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         <v>45252.91344907408</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53022,7 +53022,7 @@
         <v>45636.45025462963</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53079,7 +53079,7 @@
         <v>45636.4737962963</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53136,7 +53136,7 @@
         <v>45731.59962962963</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53193,7 +53193,7 @@
         <v>44573</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53250,7 +53250,7 @@
         <v>44333</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53307,7 +53307,7 @@
         <v>45330</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53364,7 +53364,7 @@
         <v>44279</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53421,7 +53421,7 @@
         <v>44862</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53483,7 +53483,7 @@
         <v>45719.4522337963</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53540,7 +53540,7 @@
         <v>44573.38521990741</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53597,7 +53597,7 @@
         <v>45405</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53654,7 +53654,7 @@
         <v>45110</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53716,7 +53716,7 @@
         <v>44713.58678240741</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53773,7 +53773,7 @@
         <v>45336</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53830,7 +53830,7 @@
         <v>45016.67141203704</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53892,7 +53892,7 @@
         <v>45112</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53949,7 +53949,7 @@
         <v>45043</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54011,7 +54011,7 @@
         <v>44739.52209490741</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54068,7 +54068,7 @@
         <v>44364.78170138889</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54125,7 +54125,7 @@
         <v>45317</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54187,7 +54187,7 @@
         <v>45432.54622685185</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54244,7 +54244,7 @@
         <v>45715.5837962963</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         <v>45726.90959490741</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54363,7 +54363,7 @@
         <v>45723.67724537037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54420,7 +54420,7 @@
         <v>45030.61489583334</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         <v>45030.61744212963</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54534,7 +54534,7 @@
         <v>45254</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54596,7 +54596,7 @@
         <v>44455</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54653,7 +54653,7 @@
         <v>45205.3119212963</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54710,7 +54710,7 @@
         <v>44851</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54767,7 +54767,7 @@
         <v>45129</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54824,7 +54824,7 @@
         <v>45478.47236111111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54886,7 +54886,7 @@
         <v>44957</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54948,7 +54948,7 @@
         <v>45403.86942129629</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55005,7 +55005,7 @@
         <v>45033</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55062,7 +55062,7 @@
         <v>45593.59819444444</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55124,7 +55124,7 @@
         <v>45037</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55181,7 +55181,7 @@
         <v>45030</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55238,7 +55238,7 @@
         <v>45048</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55295,7 +55295,7 @@
         <v>45777.61991898148</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55357,7 +55357,7 @@
         <v>45726.91224537037</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55414,7 +55414,7 @@
         <v>45783</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55471,7 +55471,7 @@
         <v>45783.48681712963</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55533,7 +55533,7 @@
         <v>45782.66719907407</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55590,7 +55590,7 @@
         <v>45671.62931712963</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55647,7 +55647,7 @@
         <v>45784</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55704,7 +55704,7 @@
         <v>45784.62866898148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55766,7 +55766,7 @@
         <v>45786</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55828,7 +55828,7 @@
         <v>45786.36358796297</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55890,7 +55890,7 @@
         <v>45789.42597222222</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55947,7 +55947,7 @@
         <v>45587.58498842592</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56009,7 +56009,7 @@
         <v>44565</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56071,7 +56071,7 @@
         <v>45092.36126157407</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56128,7 +56128,7 @@
         <v>45453.54733796296</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56185,7 +56185,7 @@
         <v>45453.55123842593</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56242,7 +56242,7 @@
         <v>45310.41982638889</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56299,7 +56299,7 @@
         <v>45790</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56356,7 +56356,7 @@
         <v>45792.42109953704</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56413,7 +56413,7 @@
         <v>45792.42542824074</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56470,7 +56470,7 @@
         <v>45259</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56527,7 +56527,7 @@
         <v>45796.36326388889</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56589,7 +56589,7 @@
         <v>45678.57503472222</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56646,7 +56646,7 @@
         <v>45797.39876157408</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56703,7 +56703,7 @@
         <v>45796.49842592593</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56760,7 +56760,7 @@
         <v>45794.82583333334</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56817,7 +56817,7 @@
         <v>45794.81975694445</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56874,7 +56874,7 @@
         <v>45798.45043981481</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56931,7 +56931,7 @@
         <v>45408</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56993,7 +56993,7 @@
         <v>45565.5381712963</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57050,7 +57050,7 @@
         <v>45798.66228009259</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57112,7 +57112,7 @@
         <v>45554.28857638889</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57169,7 +57169,7 @@
         <v>45722.46946759259</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57226,7 +57226,7 @@
         <v>45803.43815972222</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57283,7 +57283,7 @@
         <v>45762.76337962963</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57340,7 +57340,7 @@
         <v>45804.59579861111</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57402,7 +57402,7 @@
         <v>45369</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57464,7 +57464,7 @@
         <v>45817.64487268519</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>

--- a/Översikt NORRKÖPING.xlsx
+++ b/Översikt NORRKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45798</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>44896</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44299</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>44264</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45917.58798611111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45922.55509259259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>45139</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>45783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45579</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45645.27462962963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>45880.62738425926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45886.64045138889</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45441</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45568</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45723.61545138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45922.57796296296</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>45133</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2315,14 +2315,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 11085-2025</t>
+          <t>A 11077-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45723.57098379629</v>
+        <v>45723.55663194445</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2340,16 +2340,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2373,6 +2373,109 @@
         <v>6</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Motaggsvamp
+Spillkråka
+Talltita
+Dropptaggsvamp
+Kopparödla</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0581/artfynd/A 11077-2025 artfynd.xlsx", "A 11077-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0581/kartor/A 11077-2025 karta.png", "A 11077-2025")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0581/knärot/A 11077-2025 karta knärot.png", "A 11077-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomål/A 11077-2025 FSC-klagomål.docx", "A 11077-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomålsmail/A 11077-2025 FSC-klagomål mail.docx", "A 11077-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsyn/A 11077-2025 tillsynsbegäran.docx", "A 11077-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsynsmail/A 11077-2025 tillsynsbegäran mail.docx", "A 11077-2025")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0581/fåglar/A 11077-2025 prioriterade fågelarter.docx", "A 11077-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 11085-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45723.57098379629</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NORRKÖPING</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Motaggsvamp
@@ -2382,100 +2485,100 @@
 Huggorm</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/artfynd/A 11085-2025 artfynd.xlsx", "A 11085-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/kartor/A 11085-2025 karta.png", "A 11085-2025")</f>
         <v/>
       </c>
-      <c r="U19">
+      <c r="U20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/knärot/A 11085-2025 karta knärot.png", "A 11085-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomål/A 11085-2025 FSC-klagomål.docx", "A 11085-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomålsmail/A 11085-2025 FSC-klagomål mail.docx", "A 11085-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsyn/A 11085-2025 tillsynsbegäran.docx", "A 11085-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsynsmail/A 11085-2025 tillsynsbegäran mail.docx", "A 11085-2025")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/fåglar/A 11085-2025 prioriterade fågelarter.docx", "A 11085-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 51531-2024</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>45604</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46075</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NORRKÖPING</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NORRKÖPING</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Holmen skog AB</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>2.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
         <v>2</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>2</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>6</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Lunglav
 Scharlakansvaxing
@@ -2485,92 +2588,92 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/artfynd/A 51531-2024 artfynd.xlsx", "A 51531-2024")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/kartor/A 51531-2024 karta.png", "A 51531-2024")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomål/A 51531-2024 FSC-klagomål.docx", "A 51531-2024")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomålsmail/A 51531-2024 FSC-klagomål mail.docx", "A 51531-2024")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsyn/A 51531-2024 tillsynsbegäran.docx", "A 51531-2024")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsynsmail/A 51531-2024 tillsynsbegäran mail.docx", "A 51531-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 27912-2025</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>45817.47909722223</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46075</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NORRKÖPING</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="C22" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NORRKÖPING</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Holmen skog AB</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J22" t="n">
         <v>3</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>3</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>5</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Stubbtrådmossa
 Vedskivlav
@@ -2579,92 +2682,92 @@
 Flagellkvastmossa</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/artfynd/A 27912-2025 artfynd.xlsx", "A 27912-2025")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/kartor/A 27912-2025 karta.png", "A 27912-2025")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomål/A 27912-2025 FSC-klagomål.docx", "A 27912-2025")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomålsmail/A 27912-2025 FSC-klagomål mail.docx", "A 27912-2025")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsyn/A 27912-2025 tillsynsbegäran.docx", "A 27912-2025")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsynsmail/A 27912-2025 tillsynsbegäran mail.docx", "A 27912-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 14619-2025</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>45742.41269675926</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>46075</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NORRKÖPING</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="C23" s="1" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NORRKÖPING</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Holmen skog AB</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>7</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>2</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q23" t="n">
         <v>5</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Vedtrappmossa
@@ -2673,134 +2776,32 @@
 Mattlummer</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/artfynd/A 14619-2025 artfynd.xlsx", "A 14619-2025")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/kartor/A 14619-2025 karta.png", "A 14619-2025")</f>
         <v/>
       </c>
-      <c r="U22">
+      <c r="U23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/knärot/A 14619-2025 karta knärot.png", "A 14619-2025")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomål/A 14619-2025 FSC-klagomål.docx", "A 14619-2025")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomålsmail/A 14619-2025 FSC-klagomål mail.docx", "A 14619-2025")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsyn/A 14619-2025 tillsynsbegäran.docx", "A 14619-2025")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsynsmail/A 14619-2025 tillsynsbegäran mail.docx", "A 14619-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 11077-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45723.55663194445</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46075</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NORRKÖPING</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Motaggsvamp
-Talltita
-Dropptaggsvamp
-Kopparödla</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0581/artfynd/A 11077-2025 artfynd.xlsx", "A 11077-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0581/kartor/A 11077-2025 karta.png", "A 11077-2025")</f>
-        <v/>
-      </c>
-      <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0581/knärot/A 11077-2025 karta knärot.png", "A 11077-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomål/A 11077-2025 FSC-klagomål.docx", "A 11077-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0581/klagomålsmail/A 11077-2025 FSC-klagomål mail.docx", "A 11077-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsyn/A 11077-2025 tillsynsbegäran.docx", "A 11077-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0581/tillsynsmail/A 11077-2025 tillsynsbegäran mail.docx", "A 11077-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0581/fåglar/A 11077-2025 prioriterade fågelarter.docx", "A 11077-2025")</f>
         <v/>
       </c>
     </row>
@@ -2814,7 +2815,7 @@
         <v>45832.36966435185</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2908,7 +2909,7 @@
         <v>45968.35777777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2997,7 +2998,7 @@
         <v>44578</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3091,7 +3092,7 @@
         <v>45723.59275462963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3189,7 +3190,7 @@
         <v>44412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3286,7 +3287,7 @@
         <v>45731.65016203704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3378,7 +3379,7 @@
         <v>45917.46651620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3475,7 +3476,7 @@
         <v>45917.60378472223</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3572,7 +3573,7 @@
         <v>45881.41636574074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3665,7 +3666,7 @@
         <v>45568</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3758,7 +3759,7 @@
         <v>45042</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3855,7 +3856,7 @@
         <v>45441.33914351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3947,7 +3948,7 @@
         <v>45583</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4039,7 +4040,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4131,7 +4132,7 @@
         <v>45884.4946875</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4218,7 +4219,7 @@
         <v>45832.31648148148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4305,7 +4306,7 @@
         <v>45833.56057870371</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4396,7 +4397,7 @@
         <v>45905.42704861111</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4488,7 +4489,7 @@
         <v>45771.69168981481</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4575,7 +4576,7 @@
         <v>45922.60398148148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4662,7 +4663,7 @@
         <v>44931</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4754,7 +4755,7 @@
         <v>45978.67916666667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4845,7 +4846,7 @@
         <v>45764.47825231482</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4937,7 +4938,7 @@
         <v>45013.77040509259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5024,7 +5025,7 @@
         <v>44977</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5111,7 +5112,7 @@
         <v>45727.64337962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5203,7 +5204,7 @@
         <v>45604</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5295,7 +5296,7 @@
         <v>45733.45780092593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5386,7 +5387,7 @@
         <v>44454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5481,7 +5482,7 @@
         <v>45568.44137731481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5572,7 +5573,7 @@
         <v>45832.3365625</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5663,7 +5664,7 @@
         <v>45583</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5754,7 +5755,7 @@
         <v>44789</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5845,7 +5846,7 @@
         <v>45086</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5940,7 +5941,7 @@
         <v>45905</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6031,7 +6032,7 @@
         <v>45985.5396875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6126,7 +6127,7 @@
         <v>45694</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6212,7 +6213,7 @@
         <v>44886.54420138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6298,7 +6299,7 @@
         <v>45258.56491898148</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6389,7 +6390,7 @@
         <v>45758.54390046297</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6480,7 +6481,7 @@
         <v>45783.68689814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6566,7 +6567,7 @@
         <v>45782.659375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6652,7 +6653,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6746,7 +6747,7 @@
         <v>44480</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6836,7 +6837,7 @@
         <v>44426</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6921,7 +6922,7 @@
         <v>44452</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7011,7 +7012,7 @@
         <v>44524</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7096,7 +7097,7 @@
         <v>44490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7181,7 +7182,7 @@
         <v>45042</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7271,7 +7272,7 @@
         <v>45362</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7361,7 +7362,7 @@
         <v>45583.3479050926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7451,7 +7452,7 @@
         <v>45583</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7541,7 +7542,7 @@
         <v>45747.58131944444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7631,7 +7632,7 @@
         <v>45174</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7716,7 +7717,7 @@
         <v>44777.49493055556</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7806,7 +7807,7 @@
         <v>45742.43848379629</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7900,7 +7901,7 @@
         <v>45583</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7990,7 +7991,7 @@
         <v>45744</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8080,7 +8081,7 @@
         <v>45744.41443287037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8170,7 +8171,7 @@
         <v>44993</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8264,7 +8265,7 @@
         <v>45905.58907407407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8354,7 +8355,7 @@
         <v>45917.5712037037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8444,7 +8445,7 @@
         <v>45369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8538,7 +8539,7 @@
         <v>45924.69556712963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8623,7 +8624,7 @@
         <v>45421</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8713,7 +8714,7 @@
         <v>45964.60429398148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8803,7 +8804,7 @@
         <v>45968.57920138889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8893,7 +8894,7 @@
         <v>45580</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8978,7 +8979,7 @@
         <v>45723.66964120371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9063,7 +9064,7 @@
         <v>45117</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9157,7 +9158,7 @@
         <v>46043.58462962963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9251,7 +9252,7 @@
         <v>45702.76395833334</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9336,7 +9337,7 @@
         <v>45770.63996527778</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9421,7 +9422,7 @@
         <v>46048</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9506,7 +9507,7 @@
         <v>45201</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9591,7 +9592,7 @@
         <v>45096</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9685,7 +9686,7 @@
         <v>45056</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9770,7 +9771,7 @@
         <v>45201</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9855,7 +9856,7 @@
         <v>45408</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9944,7 +9945,7 @@
         <v>45716.5672337963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10029,7 +10030,7 @@
         <v>45376</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10119,7 +10120,7 @@
         <v>45411.57177083333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10209,7 +10210,7 @@
         <v>45251</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10294,7 +10295,7 @@
         <v>44354</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10379,7 +10380,7 @@
         <v>45348.68336805556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10469,7 +10470,7 @@
         <v>45763.60795138889</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10554,7 +10555,7 @@
         <v>45783.61222222223</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10644,7 +10645,7 @@
         <v>45796</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10738,7 +10739,7 @@
         <v>44456</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10800,7 +10801,7 @@
         <v>44456</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10862,7 +10863,7 @@
         <v>44301</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10919,7 +10920,7 @@
         <v>44307</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10976,7 +10977,7 @@
         <v>44582.4696875</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11033,7 +11034,7 @@
         <v>44530</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11095,7 +11096,7 @@
         <v>44502</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11152,7 +11153,7 @@
         <v>44622</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11214,7 +11215,7 @@
         <v>44537</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11271,7 +11272,7 @@
         <v>44825.47923611111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11328,7 +11329,7 @@
         <v>44340.80107638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11385,7 +11386,7 @@
         <v>44279</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11442,7 +11443,7 @@
         <v>44739</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11499,7 +11500,7 @@
         <v>44368</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11561,7 +11562,7 @@
         <v>44719.43086805556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11618,7 +11619,7 @@
         <v>44258</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11675,7 +11676,7 @@
         <v>44503</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11737,7 +11738,7 @@
         <v>44370</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11799,7 +11800,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11856,7 +11857,7 @@
         <v>44306</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11913,7 +11914,7 @@
         <v>44440</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11970,7 +11971,7 @@
         <v>44368</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12032,7 +12033,7 @@
         <v>44441</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12094,7 +12095,7 @@
         <v>44301</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12151,7 +12152,7 @@
         <v>44865</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12208,7 +12209,7 @@
         <v>44294</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12265,7 +12266,7 @@
         <v>44286</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12322,7 +12323,7 @@
         <v>44524.67836805555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12379,7 +12380,7 @@
         <v>44385</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12436,7 +12437,7 @@
         <v>44696.775</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12493,7 +12494,7 @@
         <v>44390</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12550,7 +12551,7 @@
         <v>44432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12612,7 +12613,7 @@
         <v>44433</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12669,7 +12670,7 @@
         <v>44447</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12726,7 +12727,7 @@
         <v>44494</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12783,7 +12784,7 @@
         <v>44368.88704861111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12840,7 +12841,7 @@
         <v>44333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12897,7 +12898,7 @@
         <v>44340</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12954,7 +12955,7 @@
         <v>44713</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13011,7 +13012,7 @@
         <v>44671</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13068,7 +13069,7 @@
         <v>44813</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13130,7 +13131,7 @@
         <v>44530</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13192,7 +13193,7 @@
         <v>44515</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13254,7 +13255,7 @@
         <v>44571</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13316,7 +13317,7 @@
         <v>44442.66228009259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13373,7 +13374,7 @@
         <v>44272</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13435,7 +13436,7 @@
         <v>44475</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13492,7 +13493,7 @@
         <v>44475</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13549,7 +13550,7 @@
         <v>44630.3978587963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13606,7 +13607,7 @@
         <v>44371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13668,7 +13669,7 @@
         <v>44371</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13730,7 +13731,7 @@
         <v>44393</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13787,7 +13788,7 @@
         <v>44362</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13844,7 +13845,7 @@
         <v>44447</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13901,7 +13902,7 @@
         <v>44524</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13958,7 +13959,7 @@
         <v>44271.81282407408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14015,7 +14016,7 @@
         <v>44530</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14077,7 +14078,7 @@
         <v>44503</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14139,7 +14140,7 @@
         <v>44313</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14201,7 +14202,7 @@
         <v>44300</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14258,7 +14259,7 @@
         <v>44300</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14315,7 +14316,7 @@
         <v>44459</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14377,7 +14378,7 @@
         <v>44446</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14439,7 +14440,7 @@
         <v>44321</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14501,7 +14502,7 @@
         <v>44879.39153935185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14563,7 +14564,7 @@
         <v>44459</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14620,7 +14621,7 @@
         <v>44475</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14677,7 +14678,7 @@
         <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14734,7 +14735,7 @@
         <v>44249</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14791,7 +14792,7 @@
         <v>44574</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14848,7 +14849,7 @@
         <v>44686</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14905,7 +14906,7 @@
         <v>44602</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14967,7 +14968,7 @@
         <v>44889.55255787037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15024,7 +15025,7 @@
         <v>44328</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15086,7 +15087,7 @@
         <v>44452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15143,7 +15144,7 @@
         <v>44825</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15200,7 +15201,7 @@
         <v>44756</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15257,7 +15258,7 @@
         <v>44582</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15319,7 +15320,7 @@
         <v>44825</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15376,7 +15377,7 @@
         <v>44741.57063657408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15433,7 +15434,7 @@
         <v>44302</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15490,7 +15491,7 @@
         <v>44730</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15552,7 +15553,7 @@
         <v>44354.45140046296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15609,7 +15610,7 @@
         <v>44362</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15671,7 +15672,7 @@
         <v>44578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15733,7 +15734,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15790,7 +15791,7 @@
         <v>44326</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15847,7 +15848,7 @@
         <v>44326</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15904,7 +15905,7 @@
         <v>44886.47697916667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15966,7 +15967,7 @@
         <v>44449</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16028,7 +16029,7 @@
         <v>44358</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16090,7 +16091,7 @@
         <v>44432</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16147,7 +16148,7 @@
         <v>44740</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16204,7 +16205,7 @@
         <v>44270</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16261,7 +16262,7 @@
         <v>44348</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16318,7 +16319,7 @@
         <v>44874</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16375,7 +16376,7 @@
         <v>44252</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16437,7 +16438,7 @@
         <v>44441</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16499,7 +16500,7 @@
         <v>44452</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16561,7 +16562,7 @@
         <v>44272</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16618,7 +16619,7 @@
         <v>44363</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16680,7 +16681,7 @@
         <v>44344.49251157408</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16742,7 +16743,7 @@
         <v>44313</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16804,7 +16805,7 @@
         <v>44363</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16866,7 +16867,7 @@
         <v>44726</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16928,7 +16929,7 @@
         <v>44487</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16990,7 +16991,7 @@
         <v>44596</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17047,7 +17048,7 @@
         <v>44468</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17109,7 +17110,7 @@
         <v>44630</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17166,7 +17167,7 @@
         <v>44279</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17223,7 +17224,7 @@
         <v>44445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17285,7 +17286,7 @@
         <v>44557</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17347,7 +17348,7 @@
         <v>44869.4575</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17409,7 +17410,7 @@
         <v>45706.42958333333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17466,7 +17467,7 @@
         <v>44322</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17523,7 +17524,7 @@
         <v>44249</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17580,7 +17581,7 @@
         <v>44957</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17642,7 +17643,7 @@
         <v>44826</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17699,7 +17700,7 @@
         <v>45758.36203703703</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17756,7 +17757,7 @@
         <v>45644</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17818,7 +17819,7 @@
         <v>45678.47236111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17875,7 +17876,7 @@
         <v>44880</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17932,7 +17933,7 @@
         <v>45469.43265046296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17989,7 +17990,7 @@
         <v>45118</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18046,7 +18047,7 @@
         <v>44900</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18108,7 +18109,7 @@
         <v>45086.71662037037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18170,7 +18171,7 @@
         <v>45401.46640046296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18232,7 +18233,7 @@
         <v>44783</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18289,7 +18290,7 @@
         <v>45076</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18351,7 +18352,7 @@
         <v>44651.42819444444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18408,7 +18409,7 @@
         <v>45386.32806712963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18470,7 +18471,7 @@
         <v>44512</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18532,7 +18533,7 @@
         <v>45579.56570601852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18594,7 +18595,7 @@
         <v>45191</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18651,7 +18652,7 @@
         <v>45706.49520833333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18708,7 +18709,7 @@
         <v>45106</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18765,7 +18766,7 @@
         <v>45716.39159722222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18822,7 +18823,7 @@
         <v>45520.52375</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18879,7 +18880,7 @@
         <v>44935.64165509259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18941,7 +18942,7 @@
         <v>45093</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18998,7 +18999,7 @@
         <v>45053.36554398148</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19055,7 +19056,7 @@
         <v>44861</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19112,7 +19113,7 @@
         <v>45110</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19174,7 +19175,7 @@
         <v>44998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19231,7 +19232,7 @@
         <v>45266</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19288,7 +19289,7 @@
         <v>45356.66037037037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19345,7 +19346,7 @@
         <v>45092.35266203704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19402,7 +19403,7 @@
         <v>44974.65918981482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19464,7 +19465,7 @@
         <v>45636.45989583333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19521,7 +19522,7 @@
         <v>45313</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19583,7 +19584,7 @@
         <v>45238.33091435185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19640,7 +19641,7 @@
         <v>44741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19697,7 +19698,7 @@
         <v>45583.55850694444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19759,7 +19760,7 @@
         <v>45583.34371527778</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19821,7 +19822,7 @@
         <v>45386.35986111111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19883,7 +19884,7 @@
         <v>45043.53597222222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19940,7 +19941,7 @@
         <v>45022.34695601852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19997,7 +19998,7 @@
         <v>45527.41597222222</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20054,7 +20055,7 @@
         <v>45254.54892361111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20111,7 +20112,7 @@
         <v>44970.44197916667</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20173,7 +20174,7 @@
         <v>44862</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20230,7 +20231,7 @@
         <v>45535.91413194445</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20287,7 +20288,7 @@
         <v>45356.64724537037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20344,7 +20345,7 @@
         <v>44980</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20406,7 +20407,7 @@
         <v>45702.76590277778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20463,7 +20464,7 @@
         <v>44956</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20525,7 +20526,7 @@
         <v>45764.43002314815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20582,7 +20583,7 @@
         <v>44966.57550925926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20644,7 +20645,7 @@
         <v>45246.41783564815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20701,7 +20702,7 @@
         <v>45742.31784722222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20758,7 +20759,7 @@
         <v>44575</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20815,7 +20816,7 @@
         <v>44936</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20872,7 +20873,7 @@
         <v>45414.5519212963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20934,7 +20935,7 @@
         <v>45272</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20996,7 +20997,7 @@
         <v>45274</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21053,7 +21054,7 @@
         <v>44754.57658564814</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21110,7 +21111,7 @@
         <v>45603.49528935185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21167,7 +21168,7 @@
         <v>45400</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21229,7 +21230,7 @@
         <v>45174</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21286,7 +21287,7 @@
         <v>45174.87439814815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21343,7 +21344,7 @@
         <v>45363.58979166667</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21400,7 +21401,7 @@
         <v>45628.56513888889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21462,7 +21463,7 @@
         <v>45731.60166666667</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21519,7 +21520,7 @@
         <v>44897</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21581,7 +21582,7 @@
         <v>44896</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21643,7 +21644,7 @@
         <v>44935</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21700,7 +21701,7 @@
         <v>44935.60138888889</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21762,7 +21763,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21824,7 +21825,7 @@
         <v>45436.41305555555</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21886,7 +21887,7 @@
         <v>45758.56946759259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21948,7 +21949,7 @@
         <v>45817</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22005,7 +22006,7 @@
         <v>45817</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22062,7 +22063,7 @@
         <v>45887</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22119,7 +22120,7 @@
         <v>45794.82150462963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22176,7 +22177,7 @@
         <v>44950</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22233,7 +22234,7 @@
         <v>44644</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22295,7 +22296,7 @@
         <v>45884.68263888889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22352,7 +22353,7 @@
         <v>45886.65516203704</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22409,7 +22410,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22471,7 +22472,7 @@
         <v>45884.45916666667</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22533,7 +22534,7 @@
         <v>45110.56027777777</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22590,7 +22591,7 @@
         <v>45110</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22647,7 +22648,7 @@
         <v>45657.94784722223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22709,7 +22710,7 @@
         <v>44439.97621527778</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22771,7 +22772,7 @@
         <v>45671.59245370371</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22833,7 +22834,7 @@
         <v>45096</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22895,7 +22896,7 @@
         <v>45532</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22952,7 +22953,7 @@
         <v>45820.39863425926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23009,7 +23010,7 @@
         <v>45202</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23071,7 +23072,7 @@
         <v>45820.37113425926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23128,7 +23129,7 @@
         <v>45121</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23190,7 +23191,7 @@
         <v>45597.40140046296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23247,7 +23248,7 @@
         <v>45888.61847222222</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23309,7 +23310,7 @@
         <v>45824.31493055556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23371,7 +23372,7 @@
         <v>45279.66864583334</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23433,7 +23434,7 @@
         <v>45071</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23490,7 +23491,7 @@
         <v>45888.46922453704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23547,7 +23548,7 @@
         <v>45684.4203125</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23609,7 +23610,7 @@
         <v>45889</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23666,7 +23667,7 @@
         <v>45678.6377199074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23723,7 +23724,7 @@
         <v>45888.4658449074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23785,7 +23786,7 @@
         <v>44889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23842,7 +23843,7 @@
         <v>45889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23899,7 +23900,7 @@
         <v>45824.45221064815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23956,7 +23957,7 @@
         <v>45824.32293981482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24018,7 +24019,7 @@
         <v>45794.81583333333</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24075,7 +24076,7 @@
         <v>45678.59783564815</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24132,7 +24133,7 @@
         <v>45317</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24194,7 +24195,7 @@
         <v>45888.4712037037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24251,7 +24252,7 @@
         <v>45202.56994212963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24308,7 +24309,7 @@
         <v>45891.59726851852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24365,7 +24366,7 @@
         <v>45891.59938657407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24422,7 +24423,7 @@
         <v>45813.56320601852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24484,7 +24485,7 @@
         <v>45043</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24541,7 +24542,7 @@
         <v>45891.60103009259</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24598,7 +24599,7 @@
         <v>45453.55534722222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24655,7 +24656,7 @@
         <v>45891.60346064815</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24712,7 +24713,7 @@
         <v>45478.42675925926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24774,7 +24775,7 @@
         <v>45894.41133101852</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24836,7 +24837,7 @@
         <v>45098.37322916667</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24893,7 +24894,7 @@
         <v>45895.42582175926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24955,7 +24956,7 @@
         <v>45895.373125</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25017,7 +25018,7 @@
         <v>45895.3627662037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25079,7 +25080,7 @@
         <v>45894.55337962963</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25141,7 +25142,7 @@
         <v>45894.4825</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25203,7 +25204,7 @@
         <v>45729</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25265,7 +25266,7 @@
         <v>45894.55216435185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25327,7 +25328,7 @@
         <v>45414.39614583334</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25384,7 +25385,7 @@
         <v>45896.66505787037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25441,7 +25442,7 @@
         <v>45832</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25498,7 +25499,7 @@
         <v>45896.81087962963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25555,7 +25556,7 @@
         <v>45833.65659722222</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25612,7 +25613,7 @@
         <v>45183</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25669,7 +25670,7 @@
         <v>45833.40451388889</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25731,7 +25732,7 @@
         <v>45896.66944444444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25788,7 +25789,7 @@
         <v>45833.4374537037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25845,7 +25846,7 @@
         <v>45832</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25902,7 +25903,7 @@
         <v>45832</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25959,7 +25960,7 @@
         <v>45764.43782407408</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26016,7 +26017,7 @@
         <v>45764.44263888889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26073,7 +26074,7 @@
         <v>45043</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26135,7 +26136,7 @@
         <v>45898.58202546297</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26192,7 +26193,7 @@
         <v>45757.66474537037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26249,7 +26250,7 @@
         <v>45758.35732638889</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26306,7 +26307,7 @@
         <v>45240</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26363,7 +26364,7 @@
         <v>45898.86685185185</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26420,7 +26421,7 @@
         <v>45817.41037037037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26477,7 +26478,7 @@
         <v>45118</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26534,7 +26535,7 @@
         <v>45903.43489583334</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26596,7 +26597,7 @@
         <v>45903.45952546296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26658,7 +26659,7 @@
         <v>45877</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26715,7 +26716,7 @@
         <v>44504</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26777,7 +26778,7 @@
         <v>45836</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26834,7 +26835,7 @@
         <v>45838.683125</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26891,7 +26892,7 @@
         <v>45715.56964120371</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26953,7 +26954,7 @@
         <v>44536</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27010,7 +27011,7 @@
         <v>45153</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27072,7 +27073,7 @@
         <v>45904.55924768518</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27134,7 +27135,7 @@
         <v>45215</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27191,7 +27192,7 @@
         <v>45908.46045138889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27253,7 +27254,7 @@
         <v>45908.47244212963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27315,7 +27316,7 @@
         <v>45096</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27377,7 +27378,7 @@
         <v>44599</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27434,7 +27435,7 @@
         <v>44999</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27496,7 +27497,7 @@
         <v>45049</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27553,7 +27554,7 @@
         <v>45330</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27610,7 +27611,7 @@
         <v>45840.65592592592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27667,7 +27668,7 @@
         <v>45840.66978009259</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27724,7 +27725,7 @@
         <v>45219.32268518519</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27781,7 +27782,7 @@
         <v>45840.66780092593</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27838,7 +27839,7 @@
         <v>45468.82832175926</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27895,7 +27896,7 @@
         <v>45201.63637731481</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27952,7 +27953,7 @@
         <v>45845.65797453704</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28014,7 +28015,7 @@
         <v>45678.44092592593</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28071,7 +28072,7 @@
         <v>44980.48200231481</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28133,7 +28134,7 @@
         <v>45845.45563657407</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28195,7 +28196,7 @@
         <v>45917.34253472222</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28252,7 +28253,7 @@
         <v>45917.34472222222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28309,7 +28310,7 @@
         <v>45317</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28371,7 +28372,7 @@
         <v>45817.42607638889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28428,7 +28429,7 @@
         <v>45736.31508101852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28485,7 +28486,7 @@
         <v>45365</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28547,7 +28548,7 @@
         <v>45405</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28604,7 +28605,7 @@
         <v>45769.45751157407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28666,7 +28667,7 @@
         <v>44923.67971064815</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28728,7 +28729,7 @@
         <v>45771.76943287037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28785,7 +28786,7 @@
         <v>44930</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28842,7 +28843,7 @@
         <v>45922.61070601852</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28899,7 +28900,7 @@
         <v>44974</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28961,7 +28962,7 @@
         <v>45860</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29023,7 +29024,7 @@
         <v>45922.59829861111</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29080,7 +29081,7 @@
         <v>45922.60783564814</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29137,7 +29138,7 @@
         <v>45923.67458333333</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29194,7 +29195,7 @@
         <v>45924.65238425926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29256,7 +29257,7 @@
         <v>45706.54385416667</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29313,7 +29314,7 @@
         <v>45043</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29370,7 +29371,7 @@
         <v>45716.57158564815</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29427,7 +29428,7 @@
         <v>45924.61788194445</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29489,7 +29490,7 @@
         <v>45924.70513888889</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29546,7 +29547,7 @@
         <v>45092.35369212963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29603,7 +29604,7 @@
         <v>44286.88952546296</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29660,7 +29661,7 @@
         <v>45798.59671296296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29722,7 +29723,7 @@
         <v>44970.65930555556</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29779,7 +29780,7 @@
         <v>44865</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29836,7 +29837,7 @@
         <v>45867.7115625</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29893,7 +29894,7 @@
         <v>45770.84420138889</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29950,7 +29951,7 @@
         <v>45924.61070601852</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30012,7 +30013,7 @@
         <v>44908</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30069,7 +30070,7 @@
         <v>44943.56112268518</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30131,7 +30132,7 @@
         <v>44943</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30193,7 +30194,7 @@
         <v>45211.52641203703</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30250,7 +30251,7 @@
         <v>45211.52895833334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30307,7 +30308,7 @@
         <v>45886</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30364,7 +30365,7 @@
         <v>45678.57045138889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30421,7 +30422,7 @@
         <v>45678.58166666667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30478,7 +30479,7 @@
         <v>45926.61226851852</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30535,7 +30536,7 @@
         <v>45927.83253472222</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30592,7 +30593,7 @@
         <v>45926.58292824074</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30649,7 +30650,7 @@
         <v>45317</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30711,7 +30712,7 @@
         <v>45215.63818287037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30768,7 +30769,7 @@
         <v>45930.36192129629</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30825,7 +30826,7 @@
         <v>44427.49322916667</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30882,7 +30883,7 @@
         <v>45807</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30939,7 +30940,7 @@
         <v>45436.41847222222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31001,7 +31002,7 @@
         <v>45204</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31063,7 +31064,7 @@
         <v>45356.64872685185</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31120,7 +31121,7 @@
         <v>44361</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31177,7 +31178,7 @@
         <v>45796</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31234,7 +31235,7 @@
         <v>45933.65831018519</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31296,7 +31297,7 @@
         <v>45933.66274305555</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31353,7 +31354,7 @@
         <v>45215</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31410,7 +31411,7 @@
         <v>45334</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31472,7 +31473,7 @@
         <v>45141</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31534,7 +31535,7 @@
         <v>44945.58030092593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31591,7 +31592,7 @@
         <v>45796</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31648,7 +31649,7 @@
         <v>45881</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31705,7 +31706,7 @@
         <v>45936.3762037037</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31767,7 +31768,7 @@
         <v>45881</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31829,7 +31830,7 @@
         <v>45706.54204861111</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31886,7 +31887,7 @@
         <v>45883.69113425926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31943,7 +31944,7 @@
         <v>45883.63648148148</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32000,7 +32001,7 @@
         <v>45883.58756944445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32057,7 +32058,7 @@
         <v>45883.5738425926</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32114,7 +32115,7 @@
         <v>45883.59934027777</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32171,7 +32172,7 @@
         <v>45883.58974537037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32233,7 +32234,7 @@
         <v>45936</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32290,7 +32291,7 @@
         <v>45764.47553240741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32347,7 +32348,7 @@
         <v>44936</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32404,7 +32405,7 @@
         <v>44312</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32466,7 +32467,7 @@
         <v>45883.74664351852</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32523,7 +32524,7 @@
         <v>45794.82371527778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32580,7 +32581,7 @@
         <v>45006</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32642,7 +32643,7 @@
         <v>45873</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32699,7 +32700,7 @@
         <v>45936</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32756,7 +32757,7 @@
         <v>45673.49019675926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32818,7 +32819,7 @@
         <v>45582.98494212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32880,7 +32881,7 @@
         <v>45943.57129629629</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32937,7 +32938,7 @@
         <v>45943.57232638889</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32994,7 +32995,7 @@
         <v>45386</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33051,7 +33052,7 @@
         <v>45943.57040509259</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33108,7 +33109,7 @@
         <v>45943.57618055555</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33165,7 +33166,7 @@
         <v>45943.57453703704</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33222,7 +33223,7 @@
         <v>45940.39841435185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33279,7 +33280,7 @@
         <v>45940.39386574074</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33336,7 +33337,7 @@
         <v>44825</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33393,7 +33394,7 @@
         <v>45645.27707175926</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33450,7 +33451,7 @@
         <v>45884.57759259259</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33512,7 +33513,7 @@
         <v>45884.60458333333</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33574,7 +33575,7 @@
         <v>45887</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33631,7 +33632,7 @@
         <v>45030</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33688,7 +33689,7 @@
         <v>44433</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33750,7 +33751,7 @@
         <v>45030.62916666667</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33807,7 +33808,7 @@
         <v>44939</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33864,7 +33865,7 @@
         <v>45093</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33926,7 +33927,7 @@
         <v>45012</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33983,7 +33984,7 @@
         <v>45771.66951388889</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34045,7 +34046,7 @@
         <v>45153.36402777778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34107,7 +34108,7 @@
         <v>45951.57859953704</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34164,7 +34165,7 @@
         <v>45709.4119212963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34226,7 +34227,7 @@
         <v>44867</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34288,7 +34289,7 @@
         <v>45373.72511574074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34345,7 +34346,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34407,7 +34408,7 @@
         <v>45016.64986111111</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34469,7 +34470,7 @@
         <v>45254</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34531,7 +34532,7 @@
         <v>45742.32277777778</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34588,7 +34589,7 @@
         <v>45497</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34645,7 +34646,7 @@
         <v>44861</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34707,7 +34708,7 @@
         <v>45954.36793981482</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34769,7 +34770,7 @@
         <v>44607</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34826,7 +34827,7 @@
         <v>45629.7202662037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34883,7 +34884,7 @@
         <v>45716.37259259259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34945,7 +34946,7 @@
         <v>45106</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35002,7 +35003,7 @@
         <v>45706.54572916667</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35059,7 +35060,7 @@
         <v>45769</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35116,7 +35117,7 @@
         <v>45266.69091435185</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35173,7 +35174,7 @@
         <v>45435</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35230,7 +35231,7 @@
         <v>44977.57584490741</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35292,7 +35293,7 @@
         <v>45960.59640046296</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35354,7 +35355,7 @@
         <v>45595</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35411,7 +35412,7 @@
         <v>45960.58719907407</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35473,7 +35474,7 @@
         <v>45090</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35535,7 +35536,7 @@
         <v>45709.42859953704</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35597,7 +35598,7 @@
         <v>45961.39773148148</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35654,7 +35655,7 @@
         <v>45114</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35711,7 +35712,7 @@
         <v>44630</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35768,7 +35769,7 @@
         <v>45008.62458333333</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35830,7 +35831,7 @@
         <v>45250.5799537037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35887,7 +35888,7 @@
         <v>45965.66423611111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35944,7 +35945,7 @@
         <v>45964.60148148148</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36006,7 +36007,7 @@
         <v>44783</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36063,7 +36064,7 @@
         <v>45261.50924768519</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36120,7 +36121,7 @@
         <v>45721.51255787037</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36177,7 +36178,7 @@
         <v>45721.51346064815</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36234,7 +36235,7 @@
         <v>44977.63902777778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36296,7 +36297,7 @@
         <v>45966.71596064815</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36353,7 +36354,7 @@
         <v>44719.43200231482</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36410,7 +36411,7 @@
         <v>45012.79270833333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36467,7 +36468,7 @@
         <v>45968.46388888889</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36529,7 +36530,7 @@
         <v>45968.57751157408</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36591,7 +36592,7 @@
         <v>45968.57597222222</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36653,7 +36654,7 @@
         <v>45670</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36710,7 +36711,7 @@
         <v>45310</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36772,7 +36773,7 @@
         <v>45706.47790509259</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36829,7 +36830,7 @@
         <v>45761.59716435185</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36891,7 +36892,7 @@
         <v>45153</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36953,7 +36954,7 @@
         <v>45490.72372685185</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37010,7 +37011,7 @@
         <v>45769.40231481481</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37072,7 +37073,7 @@
         <v>44433</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37129,7 +37130,7 @@
         <v>45716.45121527778</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37191,7 +37192,7 @@
         <v>45975.56322916667</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37248,7 +37249,7 @@
         <v>45370</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37310,7 +37311,7 @@
         <v>44805</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37372,7 +37373,7 @@
         <v>45975.57780092592</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37429,7 +37430,7 @@
         <v>44746</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37486,7 +37487,7 @@
         <v>45975.58162037037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37543,7 +37544,7 @@
         <v>44907.65043981482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37600,7 +37601,7 @@
         <v>45657.95927083334</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37662,7 +37663,7 @@
         <v>45117</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37724,7 +37725,7 @@
         <v>45121</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37786,7 +37787,7 @@
         <v>45976.56569444444</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37843,7 +37844,7 @@
         <v>45733.43347222222</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37905,7 +37906,7 @@
         <v>45733.44431712963</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37987,7 +37988,7 @@
         <v>45978.46055555555</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38049,7 +38050,7 @@
         <v>45978.46680555555</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38111,7 +38112,7 @@
         <v>45978.46510416667</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38173,7 +38174,7 @@
         <v>45978.46326388889</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38235,7 +38236,7 @@
         <v>45985.53733796296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38297,7 +38298,7 @@
         <v>44957</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38359,7 +38360,7 @@
         <v>45394</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38421,7 +38422,7 @@
         <v>44767</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38478,7 +38479,7 @@
         <v>45769.41631944444</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38540,7 +38541,7 @@
         <v>45072</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38602,7 +38603,7 @@
         <v>45985.47957175926</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38664,7 +38665,7 @@
         <v>44974</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38726,7 +38727,7 @@
         <v>45642</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38788,7 +38789,7 @@
         <v>45106</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38845,7 +38846,7 @@
         <v>45986</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38907,7 +38908,7 @@
         <v>44853.64244212963</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38964,7 +38965,7 @@
         <v>44897</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39026,7 +39027,7 @@
         <v>45629.67508101852</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39083,7 +39084,7 @@
         <v>45629.67931712963</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39140,7 +39141,7 @@
         <v>45986.38106481481</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39202,7 +39203,7 @@
         <v>45986.38231481481</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39264,7 +39265,7 @@
         <v>45986.38013888889</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39326,7 +39327,7 @@
         <v>45478.42675925926</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39388,7 +39389,7 @@
         <v>45727.6683449074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39450,7 +39451,7 @@
         <v>45090.90752314815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39512,7 +39513,7 @@
         <v>45758.56056712963</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39574,7 +39575,7 @@
         <v>44936.46326388889</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39631,7 +39632,7 @@
         <v>45989.73280092593</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39688,7 +39689,7 @@
         <v>45964</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39745,7 +39746,7 @@
         <v>45992.55408564815</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39807,7 +39808,7 @@
         <v>44462</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39864,7 +39865,7 @@
         <v>45205.35753472222</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39921,7 +39922,7 @@
         <v>46034.33767361111</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39978,7 +39979,7 @@
         <v>45446.57724537037</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40035,7 +40036,7 @@
         <v>45446.5790625</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40092,7 +40093,7 @@
         <v>46034.34396990741</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40149,7 +40150,7 @@
         <v>45077</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40206,7 +40207,7 @@
         <v>45092</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40263,7 +40264,7 @@
         <v>45278</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40320,7 +40321,7 @@
         <v>45993.43421296297</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40382,7 +40383,7 @@
         <v>45030</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40439,7 +40440,7 @@
         <v>45399.62587962963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40501,7 +40502,7 @@
         <v>45547.64484953704</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40563,7 +40564,7 @@
         <v>45159</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -40620,7 +40621,7 @@
         <v>46035.88178240741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -40682,7 +40683,7 @@
         <v>45121</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -40744,7 +40745,7 @@
         <v>45699</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -40801,7 +40802,7 @@
         <v>45699.75583333334</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -40858,7 +40859,7 @@
         <v>46037.38564814815</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -40920,7 +40921,7 @@
         <v>46037.39449074074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -40982,7 +40983,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41044,7 +41045,7 @@
         <v>45442.67793981481</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41106,7 +41107,7 @@
         <v>45008.66204861111</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41168,7 +41169,7 @@
         <v>44928.45552083333</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41230,7 +41231,7 @@
         <v>45637</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41287,7 +41288,7 @@
         <v>45117</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41349,7 +41350,7 @@
         <v>46038.58539351852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41406,7 +41407,7 @@
         <v>46041.45574074074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41468,7 +41469,7 @@
         <v>45373.73894675926</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41525,7 +41526,7 @@
         <v>46038.4565162037</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -41582,7 +41583,7 @@
         <v>46036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -41644,7 +41645,7 @@
         <v>45527.40489583334</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -41701,7 +41702,7 @@
         <v>45678.57731481481</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -41758,7 +41759,7 @@
         <v>45014</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -41815,7 +41816,7 @@
         <v>46042.51780092593</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -41872,7 +41873,7 @@
         <v>45266</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -41929,7 +41930,7 @@
         <v>45049.34974537037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -41986,7 +41987,7 @@
         <v>45049.35048611111</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42043,7 +42044,7 @@
         <v>45266.66998842593</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42100,7 +42101,7 @@
         <v>45432.6291550926</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42157,7 +42158,7 @@
         <v>46043.63300925926</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42214,7 +42215,7 @@
         <v>46043.63504629629</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42271,7 +42272,7 @@
         <v>45237</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42333,7 +42334,7 @@
         <v>46042.51780092593</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42390,7 +42391,7 @@
         <v>46043.62521990741</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42447,7 +42448,7 @@
         <v>46042.59065972222</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42504,7 +42505,7 @@
         <v>44974.564375</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42566,7 +42567,7 @@
         <v>44965</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -42623,7 +42624,7 @@
         <v>45954</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -42680,7 +42681,7 @@
         <v>45747.59501157407</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -42742,7 +42743,7 @@
         <v>44834</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -42804,7 +42805,7 @@
         <v>46003</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -42866,7 +42867,7 @@
         <v>44652</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -42923,7 +42924,7 @@
         <v>46045.44877314815</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -42980,7 +42981,7 @@
         <v>44596</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43042,7 +43043,7 @@
         <v>45772.6652662037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43104,7 +43105,7 @@
         <v>46046.43557870371</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43161,7 +43162,7 @@
         <v>46007.33993055556</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43223,7 +43224,7 @@
         <v>45771.44005787037</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43285,7 +43286,7 @@
         <v>45546</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43342,7 +43343,7 @@
         <v>46046.43328703703</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43399,7 +43400,7 @@
         <v>45229</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43456,7 +43457,7 @@
         <v>46006.43421296297</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43518,7 +43519,7 @@
         <v>45030.62740740741</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43575,7 +43576,7 @@
         <v>45030</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -43632,7 +43633,7 @@
         <v>46006.42920138889</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -43694,7 +43695,7 @@
         <v>45188</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -43751,7 +43752,7 @@
         <v>46007.54611111111</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -43813,7 +43814,7 @@
         <v>46006.44060185185</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -43875,7 +43876,7 @@
         <v>46048</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -43932,7 +43933,7 @@
         <v>46006.42659722222</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -43994,7 +43995,7 @@
         <v>45268</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44051,7 +44052,7 @@
         <v>45550.68804398148</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44108,7 +44109,7 @@
         <v>44439.97621527778</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44170,7 +44171,7 @@
         <v>46048</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44232,7 +44233,7 @@
         <v>45053.82055555555</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44289,7 +44290,7 @@
         <v>44860</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44346,7 +44347,7 @@
         <v>44597</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44403,7 +44404,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44460,7 +44461,7 @@
         <v>46052.59646990741</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44517,7 +44518,7 @@
         <v>44936</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44574,7 +44575,7 @@
         <v>46052.66451388889</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -44631,7 +44632,7 @@
         <v>45723.65960648148</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -44688,7 +44689,7 @@
         <v>44455.68550925926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -44745,7 +44746,7 @@
         <v>44588</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -44802,7 +44803,7 @@
         <v>46052.59930555556</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -44859,7 +44860,7 @@
         <v>46052.60118055555</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -44916,7 +44917,7 @@
         <v>46055.60996527778</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -44978,7 +44979,7 @@
         <v>46010.39259259259</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45035,7 +45036,7 @@
         <v>46010.49901620371</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45092,7 +45093,7 @@
         <v>46010.38619212963</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45149,7 +45150,7 @@
         <v>46010.52946759259</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45206,7 +45207,7 @@
         <v>44494</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45263,7 +45264,7 @@
         <v>46014</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45320,7 +45321,7 @@
         <v>46014</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45377,7 +45378,7 @@
         <v>45274.43547453704</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45434,7 +45435,7 @@
         <v>45558.54422453704</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45491,7 +45492,7 @@
         <v>45558</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45548,7 +45549,7 @@
         <v>44859</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -45610,7 +45611,7 @@
         <v>45336</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -45667,7 +45668,7 @@
         <v>44582</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -45724,7 +45725,7 @@
         <v>45442.6052199074</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -45786,7 +45787,7 @@
         <v>45442.60829861111</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -45848,7 +45849,7 @@
         <v>45442.68033564815</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -45910,7 +45911,7 @@
         <v>45183.65135416666</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -45967,7 +45968,7 @@
         <v>45183.65233796297</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46024,7 +46025,7 @@
         <v>45043</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46081,7 +46082,7 @@
         <v>45736.72646990741</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46138,7 +46139,7 @@
         <v>45509.57052083333</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46195,7 +46196,7 @@
         <v>45369.61550925926</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46252,7 +46253,7 @@
         <v>45145</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46309,7 +46310,7 @@
         <v>45215.63990740741</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46366,7 +46367,7 @@
         <v>44936</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46423,7 +46424,7 @@
         <v>44890</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46485,7 +46486,7 @@
         <v>45796</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46547,7 +46548,7 @@
         <v>45769</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -46604,7 +46605,7 @@
         <v>45013.63658564815</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -46661,7 +46662,7 @@
         <v>44956.54967592593</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -46723,7 +46724,7 @@
         <v>44721</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -46780,7 +46781,7 @@
         <v>45117</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -46842,7 +46843,7 @@
         <v>44980</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -46904,7 +46905,7 @@
         <v>46042.58023148148</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -46961,7 +46962,7 @@
         <v>45763.41083333334</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47023,7 +47024,7 @@
         <v>45217.51479166667</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47080,7 +47081,7 @@
         <v>45191.39708333334</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47137,7 +47138,7 @@
         <v>46042.57427083333</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47194,7 +47195,7 @@
         <v>45733.62203703704</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47256,7 +47257,7 @@
         <v>44448</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47313,7 +47314,7 @@
         <v>46042.58653935185</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47370,7 +47371,7 @@
         <v>44803.59099537037</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47427,7 +47428,7 @@
         <v>45178.43909722222</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47489,7 +47490,7 @@
         <v>44860</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47546,7 +47547,7 @@
         <v>44939</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47608,7 +47609,7 @@
         <v>44987.5428587963</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -47665,7 +47666,7 @@
         <v>46061</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -47722,7 +47723,7 @@
         <v>44956</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -47784,7 +47785,7 @@
         <v>45379</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -47841,7 +47842,7 @@
         <v>44677</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -47898,7 +47899,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -47955,7 +47956,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48012,7 +48013,7 @@
         <v>44384</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48074,7 +48075,7 @@
         <v>46030.63935185185</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48131,7 +48132,7 @@
         <v>45741.63417824074</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48193,7 +48194,7 @@
         <v>46010</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48255,7 +48256,7 @@
         <v>45268</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48312,7 +48313,7 @@
         <v>44907.66710648148</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48369,7 +48370,7 @@
         <v>45114</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48431,7 +48432,7 @@
         <v>45114</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48488,7 +48489,7 @@
         <v>45797</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48550,7 +48551,7 @@
         <v>44742</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48607,7 +48608,7 @@
         <v>46072.58601851852</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -48669,7 +48670,7 @@
         <v>44469</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -48726,7 +48727,7 @@
         <v>46072.59584490741</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -48788,7 +48789,7 @@
         <v>45723.66629629629</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -48845,7 +48846,7 @@
         <v>46050</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -48907,7 +48908,7 @@
         <v>46030.59546296296</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -48964,7 +48965,7 @@
         <v>45798</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49026,7 +49027,7 @@
         <v>45614.46292824074</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49088,7 +49089,7 @@
         <v>44679</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49150,7 +49151,7 @@
         <v>45359.68173611111</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49207,7 +49208,7 @@
         <v>44880.44351851852</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49269,7 +49270,7 @@
         <v>44414</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49326,7 +49327,7 @@
         <v>45048</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49388,7 +49389,7 @@
         <v>44936</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49450,7 +49451,7 @@
         <v>44936</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49512,7 +49513,7 @@
         <v>45106</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49569,7 +49570,7 @@
         <v>45747.44502314815</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49626,7 +49627,7 @@
         <v>45769.57802083333</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -49683,7 +49684,7 @@
         <v>45769</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -49740,7 +49741,7 @@
         <v>45178.4275</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -49802,7 +49803,7 @@
         <v>44488</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -49859,7 +49860,7 @@
         <v>44994.41405092592</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -49916,7 +49917,7 @@
         <v>45028</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -49973,7 +49974,7 @@
         <v>45442.38490740741</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50030,7 +50031,7 @@
         <v>45408.49326388889</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50087,7 +50088,7 @@
         <v>45106</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50144,7 +50145,7 @@
         <v>45716.40918981482</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50206,7 +50207,7 @@
         <v>44862</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50268,7 +50269,7 @@
         <v>45684.41622685185</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50330,7 +50331,7 @@
         <v>45043.49425925926</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50387,7 +50388,7 @@
         <v>44805</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50449,7 +50450,7 @@
         <v>45201.56556712963</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50506,7 +50507,7 @@
         <v>45132</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50568,7 +50569,7 @@
         <v>45373.48878472222</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50625,7 +50626,7 @@
         <v>45527.43385416667</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50682,7 +50683,7 @@
         <v>44992</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -50739,7 +50740,7 @@
         <v>44641.78332175926</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -50796,7 +50797,7 @@
         <v>45252</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -50853,7 +50854,7 @@
         <v>45369.61841435185</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -50910,7 +50911,7 @@
         <v>45673</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -50967,7 +50968,7 @@
         <v>45128</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51024,7 +51025,7 @@
         <v>45758.60146990741</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51081,7 +51082,7 @@
         <v>45686.61590277778</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51143,7 +51144,7 @@
         <v>45741.51940972222</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51205,7 +51206,7 @@
         <v>45096</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51267,7 +51268,7 @@
         <v>45638</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51329,7 +51330,7 @@
         <v>45246.41627314815</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51386,7 +51387,7 @@
         <v>45246</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51443,7 +51444,7 @@
         <v>45174</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51500,7 +51501,7 @@
         <v>45174</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51557,7 +51558,7 @@
         <v>45457.59425925926</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51614,7 +51615,7 @@
         <v>45092.36790509259</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51671,7 +51672,7 @@
         <v>44981</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -51733,7 +51734,7 @@
         <v>45414.3944212963</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -51790,7 +51791,7 @@
         <v>45254</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -51852,7 +51853,7 @@
         <v>45027</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -51909,7 +51910,7 @@
         <v>45425.89037037037</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -51966,7 +51967,7 @@
         <v>45581.62796296296</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52023,7 +52024,7 @@
         <v>45091</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52085,7 +52086,7 @@
         <v>45369.62108796297</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52142,7 +52143,7 @@
         <v>45071</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52199,7 +52200,7 @@
         <v>45043</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52256,7 +52257,7 @@
         <v>45442.61221064815</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52318,7 +52319,7 @@
         <v>44358</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52380,7 +52381,7 @@
         <v>45008</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52437,7 +52438,7 @@
         <v>45763.64096064815</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52499,7 +52500,7 @@
         <v>45699.65944444444</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52561,7 +52562,7 @@
         <v>45339.5277199074</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52618,7 +52619,7 @@
         <v>45758.60465277778</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52675,7 +52676,7 @@
         <v>45758.61055555556</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -52732,7 +52733,7 @@
         <v>45093.54811342592</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -52789,7 +52790,7 @@
         <v>44992</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -52846,7 +52847,7 @@
         <v>44980</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -52908,7 +52909,7 @@
         <v>45453.52299768518</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -52965,7 +52966,7 @@
         <v>45252.91344907408</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53022,7 +53023,7 @@
         <v>45636.45025462963</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53079,7 +53080,7 @@
         <v>45636.4737962963</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53136,7 +53137,7 @@
         <v>45731.59962962963</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53193,7 +53194,7 @@
         <v>44573</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53250,7 +53251,7 @@
         <v>44333</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53307,7 +53308,7 @@
         <v>45330</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53364,7 +53365,7 @@
         <v>44279</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53421,7 +53422,7 @@
         <v>44862</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53483,7 +53484,7 @@
         <v>45719.4522337963</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53540,7 +53541,7 @@
         <v>44573.38521990741</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53597,7 +53598,7 @@
         <v>45405</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53654,7 +53655,7 @@
         <v>45110</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -53716,7 +53717,7 @@
         <v>44713.58678240741</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -53773,7 +53774,7 @@
         <v>45336</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -53830,7 +53831,7 @@
         <v>45016.67141203704</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -53892,7 +53893,7 @@
         <v>45112</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -53949,7 +53950,7 @@
         <v>45043</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54011,7 +54012,7 @@
         <v>44739.52209490741</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54068,7 +54069,7 @@
         <v>44364.78170138889</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54125,7 +54126,7 @@
         <v>45317</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54187,7 +54188,7 @@
         <v>45432.54622685185</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54244,7 +54245,7 @@
         <v>45715.5837962963</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54306,7 +54307,7 @@
         <v>45726.90959490741</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54363,7 +54364,7 @@
         <v>45723.67724537037</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54420,7 +54421,7 @@
         <v>45030.61489583334</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54477,7 +54478,7 @@
         <v>45030.61744212963</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54534,7 +54535,7 @@
         <v>45254</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54596,7 +54597,7 @@
         <v>44455</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54653,7 +54654,7 @@
         <v>45205.3119212963</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -54710,7 +54711,7 @@
         <v>44851</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -54767,7 +54768,7 @@
         <v>45129</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -54824,7 +54825,7 @@
         <v>45478.47236111111</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -54886,7 +54887,7 @@
         <v>44957</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -54948,7 +54949,7 @@
         <v>45403.86942129629</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55005,7 +55006,7 @@
         <v>45033</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55062,7 +55063,7 @@
         <v>45593.59819444444</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55124,7 +55125,7 @@
         <v>45037</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55181,7 +55182,7 @@
         <v>45030</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55238,7 +55239,7 @@
         <v>45048</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55295,7 +55296,7 @@
         <v>45777.61991898148</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55357,7 +55358,7 @@
         <v>45726.91224537037</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55414,7 +55415,7 @@
         <v>45783</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55471,7 +55472,7 @@
         <v>45783.48681712963</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55533,7 +55534,7 @@
         <v>45782.66719907407</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55590,7 +55591,7 @@
         <v>45671.62931712963</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55647,7 +55648,7 @@
         <v>45784</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55704,7 +55705,7 @@
         <v>45784.62866898148</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -55766,7 +55767,7 @@
         <v>45786</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -55828,7 +55829,7 @@
         <v>45786.36358796297</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -55890,7 +55891,7 @@
         <v>45789.42597222222</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -55947,7 +55948,7 @@
         <v>45587.58498842592</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56009,7 +56010,7 @@
         <v>44565</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56071,7 +56072,7 @@
         <v>45092.36126157407</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56128,7 +56129,7 @@
         <v>45453.54733796296</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56185,7 +56186,7 @@
         <v>45453.55123842593</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56242,7 +56243,7 @@
         <v>45310.41982638889</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56299,7 +56300,7 @@
         <v>45790</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56356,7 +56357,7 @@
         <v>45792.42109953704</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56413,7 +56414,7 @@
         <v>45792.42542824074</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56470,7 +56471,7 @@
         <v>45259</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56527,7 +56528,7 @@
         <v>45796.36326388889</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56589,7 +56590,7 @@
         <v>45678.57503472222</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56646,7 +56647,7 @@
         <v>45797.39876157408</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56703,7 +56704,7 @@
         <v>45796.49842592593</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -56760,7 +56761,7 @@
         <v>45794.82583333334</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -56817,7 +56818,7 @@
         <v>45794.81975694445</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -56874,7 +56875,7 @@
         <v>45798.45043981481</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -56931,7 +56932,7 @@
         <v>45408</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -56993,7 +56994,7 @@
         <v>45565.5381712963</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57050,7 +57051,7 @@
         <v>45798.66228009259</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57112,7 +57113,7 @@
         <v>45554.28857638889</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57169,7 +57170,7 @@
         <v>45722.46946759259</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57226,7 +57227,7 @@
         <v>45803.43815972222</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57283,7 +57284,7 @@
         <v>45762.76337962963</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57340,7 +57341,7 @@
         <v>45804.59579861111</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57402,7 +57403,7 @@
         <v>45369</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57464,7 +57465,7 @@
         <v>45817.64487268519</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
